--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAFF557-3047-D144-96F2-F6B4C9A09DC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2DC985-4B49-A747-8E4B-584FC2639CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
   <sheets>
     <sheet name="datedimension" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -349,6 +349,45 @@
   </si>
   <si>
     <t>advent</t>
+  </si>
+  <si>
+    <t>St. Francis Xavier, Priest</t>
+  </si>
+  <si>
+    <t>Memorial</t>
+  </si>
+  <si>
+    <t>Optional Memorial</t>
+  </si>
+  <si>
+    <t>St. Nicholar, Bishop</t>
+  </si>
+  <si>
+    <t>St. Ambrose, Bishop and Doctor of the Church</t>
+  </si>
+  <si>
+    <t>St. Juan Diego Cuauhtlatoatzin</t>
+  </si>
+  <si>
+    <t>St. Damausus I, Pope</t>
+  </si>
+  <si>
+    <t>St. John Damascene, Doctor of the Church</t>
+  </si>
+  <si>
+    <t>St. Lucy, Virgin and Martyr</t>
+  </si>
+  <si>
+    <t>St. John of the Cross, Doctor of the Church</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Rose</t>
   </si>
 </sst>
 </file>
@@ -719,20 +758,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="59.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -763,14 +803,17 @@
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
@@ -804,8 +847,9 @@
       <c r="J2" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -839,8 +883,9 @@
       <c r="J3" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -874,8 +919,9 @@
       <c r="J4" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -909,8 +955,9 @@
       <c r="J5" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -944,8 +991,9 @@
       <c r="J6" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -979,8 +1027,9 @@
       <c r="J7" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -1014,8 +1063,9 @@
       <c r="J8" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -1049,8 +1099,9 @@
       <c r="J9" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -1084,8 +1135,9 @@
       <c r="J10" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -1119,8 +1171,9 @@
       <c r="J11" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1154,8 +1207,9 @@
       <c r="J12" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -1189,10 +1243,11 @@
       <c r="J13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
@@ -1226,8 +1281,9 @@
       <c r="J14" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
@@ -1261,8 +1317,9 @@
       <c r="J15" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -1296,8 +1353,9 @@
       <c r="J16" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -1331,10 +1389,13 @@
       <c r="J17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
@@ -1368,8 +1429,11 @@
       <c r="J18" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -1403,8 +1467,11 @@
       <c r="J19" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -1438,14 +1505,17 @@
       <c r="J20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -1479,8 +1549,11 @@
       <c r="J21" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K21" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -1514,8 +1587,11 @@
       <c r="J22" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -1549,8 +1625,17 @@
       <c r="J23" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -1584,9 +1669,17 @@
       <c r="J24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K25" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -1655,8 +1751,17 @@
       <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -1690,8 +1795,17 @@
       <c r="J27" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -1725,14 +1839,17 @@
       <c r="J28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -1766,8 +1883,17 @@
       <c r="J29" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -1801,8 +1927,11 @@
       <c r="J30" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -1836,8 +1965,17 @@
       <c r="J31" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -1871,8 +2009,11 @@
       <c r="J32" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -1906,8 +2047,17 @@
       <c r="J33" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
@@ -1941,8 +2091,17 @@
       <c r="J34" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -1976,8 +2135,13 @@
       <c r="J35" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -2011,8 +2175,11 @@
       <c r="J36" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>85</v>
       </c>
@@ -2046,8 +2213,11 @@
       <c r="J37" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>86</v>
       </c>
@@ -2081,8 +2251,11 @@
       <c r="J38" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>87</v>
       </c>
@@ -2116,8 +2289,11 @@
       <c r="J39" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>88</v>
       </c>
@@ -2151,8 +2327,11 @@
       <c r="J40" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>89</v>
       </c>
@@ -2186,8 +2365,11 @@
       <c r="J41" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>90</v>
       </c>
@@ -2221,8 +2403,11 @@
       <c r="J42" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>91</v>
       </c>
@@ -2256,8 +2441,11 @@
       <c r="J43" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
@@ -2290,6 +2478,9 @@
       </c>
       <c r="J44" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2DC985-4B49-A747-8E4B-584FC2639CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900EEFB-2C71-F64F-9A2F-C97469CBD96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Second</t>
   </si>
   <si>
-    <t>Sunday Cycle</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -333,9 +330,6 @@
     <t>Solemnity</t>
   </si>
   <si>
-    <t>A, B, C</t>
-  </si>
-  <si>
     <t>I, II</t>
   </si>
   <si>
@@ -388,6 +382,9 @@
   </si>
   <si>
     <t>Rose</t>
+  </si>
+  <si>
+    <t>Year Cycle</t>
   </si>
 </sst>
 </file>
@@ -761,7 +758,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38:K44"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,36 +783,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B16" si="0">YEAR(A2)</f>
@@ -830,28 +827,28 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="0"/>
@@ -866,28 +863,28 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
@@ -902,28 +899,28 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
@@ -938,28 +935,28 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
@@ -974,28 +971,28 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
@@ -1010,28 +1007,28 @@
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
@@ -1046,28 +1043,28 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
@@ -1082,28 +1079,28 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
@@ -1118,28 +1115,28 @@
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
@@ -1154,28 +1151,28 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
@@ -1190,28 +1187,28 @@
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
@@ -1226,22 +1223,22 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="4"/>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
@@ -1264,28 +1261,28 @@
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
@@ -1300,28 +1297,28 @@
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
@@ -1336,28 +1333,28 @@
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4">
         <f>YEAR(A17)</f>
@@ -1372,32 +1369,32 @@
         <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" ref="B18:B44" si="3">YEAR(A18)</f>
@@ -1412,30 +1409,30 @@
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="3"/>
@@ -1450,30 +1447,30 @@
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="3"/>
@@ -1488,36 +1485,36 @@
         <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="3"/>
@@ -1532,30 +1529,30 @@
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="3"/>
@@ -1570,30 +1567,30 @@
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="3"/>
@@ -1608,36 +1605,36 @@
         <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="3"/>
@@ -1652,36 +1649,36 @@
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="3"/>
@@ -1696,30 +1693,30 @@
         <v>5</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="3"/>
@@ -1734,36 +1731,36 @@
         <v>6</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="3"/>
@@ -1778,36 +1775,36 @@
         <v>7</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="3"/>
@@ -1822,36 +1819,36 @@
         <v>8</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="3"/>
@@ -1866,36 +1863,36 @@
         <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="3"/>
@@ -1910,30 +1907,30 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="3"/>
@@ -1948,36 +1945,36 @@
         <v>11</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" si="3"/>
@@ -1992,30 +1989,30 @@
         <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" si="3"/>
@@ -2030,36 +2027,36 @@
         <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4">
         <f t="shared" si="3"/>
@@ -2074,36 +2071,36 @@
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" si="3"/>
@@ -2118,32 +2115,32 @@
         <v>15</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="4">
         <f t="shared" si="3"/>
@@ -2158,30 +2155,30 @@
         <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="4">
         <f t="shared" si="3"/>
@@ -2196,30 +2193,30 @@
         <v>17</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="3"/>
@@ -2234,30 +2231,30 @@
         <v>18</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" si="3"/>
@@ -2272,30 +2269,30 @@
         <v>19</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" si="3"/>
@@ -2310,30 +2307,30 @@
         <v>20</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" si="3"/>
@@ -2348,30 +2345,30 @@
         <v>21</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" si="3"/>
@@ -2386,30 +2383,30 @@
         <v>22</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" si="3"/>
@@ -2424,30 +2421,30 @@
         <v>23</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" si="3"/>
@@ -2462,25 +2459,25 @@
         <v>24</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900EEFB-2C71-F64F-9A2F-C97469CBD96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C24E2D2-A63E-E149-AC9A-C28E30A0BBD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
   <sheets>
     <sheet name="datedimension" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -63,9 +63,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Weekday Cycle</t>
-  </si>
-  <si>
     <t>Qualifying Day</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>II</t>
-  </si>
-  <si>
     <t>Third</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
     <t>Optional Memorial</t>
   </si>
   <si>
-    <t>St. Nicholar, Bishop</t>
-  </si>
-  <si>
     <t>St. Ambrose, Bishop and Doctor of the Church</t>
   </si>
   <si>
@@ -385,6 +376,39 @@
   </si>
   <si>
     <t>Year Cycle</t>
+  </si>
+  <si>
+    <t>Feast Short</t>
+  </si>
+  <si>
+    <t>St. Nicholas, Bishop</t>
+  </si>
+  <si>
+    <t>st-andrew</t>
+  </si>
+  <si>
+    <t>st-francis-xavier</t>
+  </si>
+  <si>
+    <t>st-john-damascene</t>
+  </si>
+  <si>
+    <t>st-nicholas</t>
+  </si>
+  <si>
+    <t>st-ambrose</t>
+  </si>
+  <si>
+    <t>immaculate-conception</t>
+  </si>
+  <si>
+    <t>st-juan-diego</t>
+  </si>
+  <si>
+    <t>st-damasus-i</t>
+  </si>
+  <si>
+    <t>st-lucy</t>
   </si>
 </sst>
 </file>
@@ -757,16 +781,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="59.33203125" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -783,36 +807,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>113</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B16" si="0">YEAR(A2)</f>
@@ -827,28 +851,25 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="0"/>
@@ -863,28 +884,25 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
@@ -899,28 +917,25 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
@@ -935,28 +950,25 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
@@ -971,28 +983,25 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
@@ -1007,28 +1016,25 @@
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
@@ -1043,28 +1049,25 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
@@ -1079,28 +1082,25 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
@@ -1115,28 +1115,25 @@
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
@@ -1151,28 +1148,25 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
@@ -1187,28 +1181,25 @@
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
@@ -1223,30 +1214,28 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
@@ -1261,28 +1250,25 @@
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
@@ -1297,28 +1283,25 @@
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
@@ -1333,28 +1316,25 @@
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4">
         <f>YEAR(A17)</f>
@@ -1369,32 +1349,30 @@
         <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>98</v>
+      <c r="I17" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" ref="B18:B44" si="3">YEAR(A18)</f>
@@ -1409,30 +1387,27 @@
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>98</v>
+      <c r="I18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="3"/>
@@ -1447,30 +1422,27 @@
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="3"/>
@@ -1485,36 +1457,36 @@
         <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="3"/>
@@ -1529,30 +1501,27 @@
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="3"/>
@@ -1567,30 +1536,27 @@
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="3"/>
@@ -1605,36 +1571,36 @@
         <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="M23" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="3"/>
@@ -1649,36 +1615,36 @@
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>98</v>
+      <c r="I24" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="3"/>
@@ -1693,30 +1659,27 @@
         <v>5</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="3"/>
@@ -1731,36 +1694,36 @@
         <v>6</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="3"/>
@@ -1775,36 +1738,36 @@
         <v>7</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="M27" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="3"/>
@@ -1819,36 +1782,36 @@
         <v>8</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="3"/>
@@ -1863,36 +1826,36 @@
         <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="3"/>
@@ -1907,30 +1870,27 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="3"/>
@@ -1945,36 +1905,36 @@
         <v>11</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>98</v>
+      <c r="I31" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" si="3"/>
@@ -1989,30 +1949,27 @@
         <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" si="3"/>
@@ -2027,36 +1984,36 @@
         <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="M33" s="4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="4">
         <f t="shared" si="3"/>
@@ -2071,36 +2028,34 @@
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" si="3"/>
@@ -2115,32 +2070,30 @@
         <v>15</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>115</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4">
         <f t="shared" si="3"/>
@@ -2155,30 +2108,27 @@
         <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4">
         <f t="shared" si="3"/>
@@ -2193,30 +2143,27 @@
         <v>17</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="3"/>
@@ -2231,30 +2178,27 @@
         <v>18</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>98</v>
+      <c r="I38" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" si="3"/>
@@ -2269,30 +2213,27 @@
         <v>19</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" si="3"/>
@@ -2307,30 +2248,27 @@
         <v>20</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" si="3"/>
@@ -2345,30 +2283,27 @@
         <v>21</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" si="3"/>
@@ -2383,30 +2318,27 @@
         <v>22</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" si="3"/>
@@ -2421,30 +2353,27 @@
         <v>23</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" si="3"/>
@@ -2459,25 +2388,22 @@
         <v>24</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C24E2D2-A63E-E149-AC9A-C28E30A0BBD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F46A2-58E3-0A42-A48A-DB22EAD8570B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -782,7 +782,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F46A2-58E3-0A42-A48A-DB22EAD8570B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8CA89D-E8AE-954F-8C4D-C8AAC33CBDD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -409,6 +409,24 @@
   </si>
   <si>
     <t>st-lucy</t>
+  </si>
+  <si>
+    <t>Extra Large/First Sunday of Advent.jpg</t>
+  </si>
+  <si>
+    <t>Liturgy Image Location</t>
+  </si>
+  <si>
+    <t>Feast Image Location</t>
+  </si>
+  <si>
+    <t>Extra Large/Vatican 002.jp</t>
+  </si>
+  <si>
+    <t>Extra Large/Immaculate Conception.jpg</t>
+  </si>
+  <si>
+    <t>Large/Season of Advent.jpg</t>
   </si>
 </sst>
 </file>
@@ -779,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,10 +808,11 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="59.33203125" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -824,17 +843,23 @@
       <c r="J1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -866,8 +891,9 @@
         <v>44</v>
       </c>
       <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -899,8 +925,9 @@
         <v>45</v>
       </c>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -932,8 +959,9 @@
         <v>45</v>
       </c>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -965,8 +993,9 @@
         <v>45</v>
       </c>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -998,8 +1027,9 @@
         <v>45</v>
       </c>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -1031,8 +1061,9 @@
         <v>45</v>
       </c>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -1064,8 +1095,9 @@
         <v>45</v>
       </c>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -1097,8 +1129,9 @@
         <v>45</v>
       </c>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -1130,8 +1163,9 @@
         <v>46</v>
       </c>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -1163,8 +1197,9 @@
         <v>46</v>
       </c>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -1196,8 +1231,9 @@
         <v>46</v>
       </c>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -1229,11 +1265,12 @@
         <v>46</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -1265,8 +1302,9 @@
         <v>46</v>
       </c>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -1298,8 +1336,9 @@
         <v>46</v>
       </c>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1331,8 +1370,9 @@
         <v>46</v>
       </c>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -1366,11 +1406,14 @@
       <c r="J17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -1404,8 +1447,11 @@
       <c r="J18" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K18" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -1439,8 +1485,11 @@
       <c r="J19" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K19" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -1474,17 +1523,23 @@
       <c r="J20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -1518,8 +1573,11 @@
       <c r="J21" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K21" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -1553,8 +1611,11 @@
       <c r="J22" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -1588,17 +1649,23 @@
       <c r="J23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -1632,17 +1699,21 @@
       <c r="J24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -1676,8 +1747,9 @@
       <c r="J25" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -1711,17 +1783,21 @@
       <c r="J26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -1755,17 +1831,21 @@
       <c r="J27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -1799,17 +1879,21 @@
       <c r="J28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -1843,17 +1927,21 @@
       <c r="J29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -1887,8 +1975,9 @@
       <c r="J30" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -1922,17 +2011,21 @@
       <c r="J31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -1966,8 +2059,9 @@
       <c r="J32" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -2001,17 +2095,21 @@
       <c r="J33" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="5"/>
+      <c r="L33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>79</v>
       </c>
@@ -2045,15 +2143,16 @@
       <c r="J34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>80</v>
       </c>
@@ -2087,11 +2186,12 @@
       <c r="J35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K35" s="4"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
@@ -2125,8 +2225,9 @@
       <c r="J36" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -2160,8 +2261,9 @@
       <c r="J37" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>83</v>
       </c>
@@ -2195,8 +2297,9 @@
       <c r="J38" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>84</v>
       </c>
@@ -2230,8 +2333,9 @@
       <c r="J39" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
@@ -2265,8 +2369,9 @@
       <c r="J40" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
@@ -2300,8 +2405,9 @@
       <c r="J41" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>87</v>
       </c>
@@ -2335,8 +2441,9 @@
       <c r="J42" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>88</v>
       </c>
@@ -2370,8 +2477,9 @@
       <c r="J43" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>89</v>
       </c>
@@ -2405,6 +2513,7 @@
       <c r="J44" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="K44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8CA89D-E8AE-954F-8C4D-C8AAC33CBDD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E65666-8D96-4549-B0FC-A1AABD00B3F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E65666-8D96-4549-B0FC-A1AABD00B3F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11453B85-C402-4D4C-B402-EE201927A1BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,6 +810,8 @@
     <col min="9" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="59.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11453B85-C402-4D4C-B402-EE201927A1BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A691C2E-F2E2-5147-B91C-1F227731BEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -799,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A691C2E-F2E2-5147-B91C-1F227731BEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D45A9F-7155-E44C-82DF-8CAD709CE4E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D45A9F-7155-E44C-82DF-8CAD709CE4E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4157F-0C5E-A946-BD9A-D54BE0353E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
   <sheets>
     <sheet name="datedimension" sheetId="1" r:id="rId1"/>
@@ -381,9 +381,6 @@
     <t>Feast Short</t>
   </si>
   <si>
-    <t>St. Nicholas, Bishop</t>
-  </si>
-  <si>
     <t>st-andrew</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>Large/Season of Advent.jpg</t>
+  </si>
+  <si>
+    <t>St. Nicholas of Myra, Bishop</t>
   </si>
 </sst>
 </file>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,7 +846,7 @@
         <v>110</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>91</v>
@@ -858,7 +858,7 @@
         <v>114</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
         <v>111</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1450,7 +1450,7 @@
         <v>111</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
         <v>111</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>111</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>93</v>
@@ -1535,10 +1535,10 @@
         <v>94</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1576,7 +1576,7 @@
         <v>111</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>111</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>111</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>101</v>
@@ -1661,10 +1661,10 @@
         <v>102</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1709,10 +1709,10 @@
         <v>103</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1787,16 +1787,16 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="4" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>103</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1841,10 +1841,10 @@
         <v>102</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1889,10 +1889,10 @@
         <v>95</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1937,10 +1937,10 @@
         <v>103</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2021,10 +2021,10 @@
         <v>103</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2105,10 +2105,10 @@
         <v>102</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4157F-0C5E-A946-BD9A-D54BE0353E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFA460-B52C-B44F-98B0-1E782CC3E347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>St. Nicholas of Myra, Bishop</t>
+  </si>
+  <si>
+    <t>Our Lady of Guadalupe</t>
+  </si>
+  <si>
+    <t>guadalupe</t>
   </si>
 </sst>
 </file>
@@ -799,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2062,6 +2068,15 @@
         <v>112</v>
       </c>
       <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFA460-B52C-B44F-98B0-1E782CC3E347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855263A-3036-0547-BEA8-691EAD0FB7FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>guadalupe</t>
+  </si>
+  <si>
+    <t>st-john-cross</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2167,7 +2170,9 @@
       <c r="M34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855263A-3036-0547-BEA8-691EAD0FB7FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2889CFD7-722C-9444-A210-DD68298B60FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -436,6 +436,18 @@
   </si>
   <si>
     <t>st-john-cross</t>
+  </si>
+  <si>
+    <t>St. Peter Canisius, Doctor of the Church</t>
+  </si>
+  <si>
+    <t>st-peter-canisius</t>
+  </si>
+  <si>
+    <t>St. John Cantius, Priest</t>
+  </si>
+  <si>
+    <t>st-john-cantius</t>
   </si>
 </sst>
 </file>
@@ -808,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2209,9 +2221,6 @@
         <v>112</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
@@ -2428,6 +2437,15 @@
         <v>111</v>
       </c>
       <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
@@ -2500,6 +2518,15 @@
         <v>111</v>
       </c>
       <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2889CFD7-722C-9444-A210-DD68298B60FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B3BEF4-82FA-A148-AC33-94FC9F84AF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,15 +1441,15 @@
         <v>63</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18:B44" si="3">YEAR(A18)</f>
+        <f t="shared" ref="B18:B55" si="3">YEAR(A18)</f>
         <v>2022</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:C44" si="4">MONTH(A18)</f>
+        <f t="shared" ref="C18:C45" si="4">MONTH(A18)</f>
         <v>11</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:D44" si="5">DAY(A18)</f>
+        <f t="shared" ref="D18:D45" si="5">DAY(A18)</f>
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -2563,6 +2563,311 @@
         <v>111</v>
       </c>
       <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B3BEF4-82FA-A148-AC33-94FC9F84AF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070C07B7-0A27-A049-97FE-2753A5D90A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:I159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070C07B7-0A27-A049-97FE-2753A5D90A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E3AB31-CB25-0042-86D3-BE6A45700D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="215">
   <si>
     <t>Date</t>
   </si>
@@ -448,6 +448,237 @@
   </si>
   <si>
     <t>st-john-cantius</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-07</t>
+  </si>
+  <si>
+    <t>2023-01-08</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-14</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-21</t>
+  </si>
+  <si>
+    <t>2023-01-22</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-01-29</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>31st</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>christmas-eve</t>
+  </si>
+  <si>
+    <t>Christmas Season</t>
+  </si>
+  <si>
+    <t>A, B, C</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>christmas-day</t>
+  </si>
+  <si>
+    <t>St. Stephen, Protomartyr</t>
+  </si>
+  <si>
+    <t>st-stephen-protomartyr</t>
+  </si>
+  <si>
+    <t>Fifth</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>Seventh</t>
+  </si>
+  <si>
+    <t>Nativity of our Lord Jesus Christ</t>
+  </si>
+  <si>
+    <t>Holy Innocents, Martyrs</t>
+  </si>
+  <si>
+    <t>holy-innocents</t>
+  </si>
+  <si>
+    <t>St. John the Baptist</t>
+  </si>
+  <si>
+    <t>st-john-battist</t>
+  </si>
+  <si>
+    <t>Day Name</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Eighth</t>
+  </si>
+  <si>
+    <t>Ninth</t>
+  </si>
+  <si>
+    <t>Tenth</t>
+  </si>
+  <si>
+    <t>Eleventh</t>
+  </si>
+  <si>
+    <t>Twelfth</t>
+  </si>
+  <si>
+    <t>jesus-mary-joseph</t>
+  </si>
+  <si>
+    <t>Holy Family of Jesus, Mary, and Joseph</t>
+  </si>
+  <si>
+    <t>Epiphany of our Lord Jesus Christ</t>
+  </si>
+  <si>
+    <t>epiphany</t>
+  </si>
+  <si>
+    <t>Holy Name of Jesus</t>
+  </si>
+  <si>
+    <t>Nativity of our Lord Jesus Christ, Vigil</t>
+  </si>
+  <si>
+    <t>mary-theotokos</t>
+  </si>
+  <si>
+    <t>Blessed Virgin Mary, Theotokos</t>
+  </si>
+  <si>
+    <t>holy-name-jesus</t>
   </si>
 </sst>
 </file>
@@ -818,24 +1049,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -852,37 +1084,40 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -902,21 +1137,24 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -936,21 +1174,24 @@
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -970,21 +1211,24 @@
         <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -1004,21 +1248,24 @@
         <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -1038,21 +1285,24 @@
         <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -1072,21 +1322,24 @@
         <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -1106,21 +1359,24 @@
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -1140,21 +1396,24 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -1174,21 +1433,24 @@
         <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -1208,21 +1470,24 @@
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -1242,21 +1507,24 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -1276,24 +1544,27 @@
         <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -1313,21 +1584,24 @@
         <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -1347,21 +1621,24 @@
         <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1381,21 +1658,24 @@
         <v>35</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -1415,33 +1695,36 @@
         <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18:B55" si="3">YEAR(A18)</f>
+        <f t="shared" ref="B18:B45" si="3">YEAR(A18)</f>
         <v>2022</v>
       </c>
       <c r="C18" s="4">
@@ -1456,25 +1739,28 @@
         <v>37</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -1494,25 +1780,28 @@
         <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -1532,37 +1821,40 @@
         <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -1582,25 +1874,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -1620,25 +1915,28 @@
         <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -1658,37 +1956,40 @@
         <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -1708,35 +2009,38 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -1756,23 +2060,26 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -1792,35 +2099,38 @@
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5"/>
+      <c r="M26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -1840,35 +2150,38 @@
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="5"/>
+      <c r="M27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -1888,35 +2201,38 @@
         <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="5"/>
+      <c r="M28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -1936,35 +2252,38 @@
         <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="5"/>
+      <c r="M29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -1984,23 +2303,26 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -2020,35 +2342,38 @@
         <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2068,32 +2393,35 @@
         <v>21</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="N32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="O32" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -2113,35 +2441,38 @@
         <v>22</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="5"/>
+      <c r="M33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>79</v>
       </c>
@@ -2161,32 +2492,35 @@
         <v>23</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="5"/>
+      <c r="M34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="O34" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>80</v>
       </c>
@@ -2206,23 +2540,26 @@
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
@@ -2242,23 +2579,26 @@
         <v>25</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -2278,23 +2618,26 @@
         <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>83</v>
       </c>
@@ -2314,23 +2657,26 @@
         <v>27</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>84</v>
       </c>
@@ -2350,23 +2696,26 @@
         <v>28</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
@@ -2386,23 +2735,26 @@
         <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="K40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
@@ -2422,32 +2774,35 @@
         <v>30</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="N41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="O41" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>87</v>
       </c>
@@ -2467,23 +2822,26 @@
         <v>31</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>88</v>
       </c>
@@ -2503,32 +2861,35 @@
         <v>32</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="5"/>
+      <c r="M43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="N43" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="O43" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>89</v>
       </c>
@@ -2548,326 +2909,1333 @@
         <v>33</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="J44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="K44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" ref="B46:B51" si="6">YEAR(A46)</f>
+        <v>2022</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" ref="C46:C51" si="7">MONTH(A46)</f>
+        <v>12</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" ref="D46:D51" si="8">DAY(A46)</f>
+        <v>26</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" ref="B52:B61" si="9">YEAR(A52)</f>
+        <v>2023</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" ref="C52:C61" si="10">MONTH(A52)</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" ref="D52:D61" si="11">DAY(A52)</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="4">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="4">
+        <f t="shared" ref="B62:B82" si="12">YEAR(A62)</f>
+        <v>2023</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" ref="C62:C82" si="13">MONTH(A62)</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" ref="D62:D82" si="14">DAY(A62)</f>
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E3AB31-CB25-0042-86D3-BE6A45700D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B6337-C713-FB4F-962B-0E753DFBE04F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -570,9 +570,6 @@
     <t>christmas</t>
   </si>
   <si>
-    <t>christmas-eve</t>
-  </si>
-  <si>
     <t>Christmas Season</t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>holy-name-jesus</t>
+  </si>
+  <si>
+    <t>christmas-vigil</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>40</v>
@@ -1174,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>40</v>
@@ -1211,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>40</v>
@@ -1248,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>40</v>
@@ -1285,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>40</v>
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>40</v>
@@ -1359,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>40</v>
@@ -1396,7 +1396,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>40</v>
@@ -1433,7 +1433,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>40</v>
@@ -1470,7 +1470,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>40</v>
@@ -1507,7 +1507,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>40</v>
@@ -1544,7 +1544,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>40</v>
@@ -1584,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>40</v>
@@ -1621,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>40</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>40</v>
@@ -1695,7 +1695,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>90</v>
@@ -1739,7 +1739,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>90</v>
@@ -1780,7 +1780,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>90</v>
@@ -1821,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>90</v>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>90</v>
@@ -1915,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>90</v>
@@ -1956,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>90</v>
@@ -2009,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>90</v>
@@ -2060,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>90</v>
@@ -2099,7 +2099,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>90</v>
@@ -2150,7 +2150,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>90</v>
@@ -2201,7 +2201,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>90</v>
@@ -2252,7 +2252,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>90</v>
@@ -2303,7 +2303,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>90</v>
@@ -2342,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>90</v>
@@ -2393,7 +2393,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>90</v>
@@ -2441,7 +2441,7 @@
         <v>22</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>90</v>
@@ -2492,7 +2492,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>90</v>
@@ -2540,7 +2540,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>90</v>
@@ -2579,7 +2579,7 @@
         <v>25</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>90</v>
@@ -2618,7 +2618,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>90</v>
@@ -2657,7 +2657,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>90</v>
@@ -2696,7 +2696,7 @@
         <v>28</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>90</v>
@@ -2735,7 +2735,7 @@
         <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>90</v>
@@ -2774,7 +2774,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>90</v>
@@ -2822,7 +2822,7 @@
         <v>31</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>90</v>
@@ -2861,7 +2861,7 @@
         <v>32</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>90</v>
@@ -2909,7 +2909,7 @@
         <v>33</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>90</v>
@@ -2928,13 +2928,13 @@
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>95</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -2957,32 +2957,32 @@
         <v>34</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>95</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -3005,31 +3005,31 @@
         <v>35</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>94</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -3052,31 +3052,31 @@
         <v>36</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>94</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -3099,31 +3099,31 @@
         <v>37</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>43</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>94</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -3146,22 +3146,22 @@
         <v>38</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -3184,31 +3184,31 @@
         <v>39</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="M50" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -3231,22 +3231,22 @@
         <v>176</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -3269,31 +3269,31 @@
         <v>10</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K52" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="M52" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>95</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -3316,22 +3316,22 @@
         <v>11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K53" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -3354,31 +3354,31 @@
         <v>12</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="M54" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -3401,22 +3401,22 @@
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -3439,22 +3439,22 @@
         <v>14</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -3477,7 +3477,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>40</v>
@@ -3486,22 +3486,22 @@
         <v>99</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>94</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3524,7 +3524,7 @@
         <v>16</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>40</v>
@@ -3553,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>40</v>
@@ -3582,7 +3582,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>40</v>
@@ -3611,7 +3611,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>40</v>
@@ -3640,7 +3640,7 @@
         <v>20</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>40</v>
@@ -3669,7 +3669,7 @@
         <v>21</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>40</v>
@@ -3698,7 +3698,7 @@
         <v>22</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>40</v>
@@ -3727,7 +3727,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>40</v>
@@ -3756,7 +3756,7 @@
         <v>24</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>40</v>
@@ -3785,7 +3785,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>40</v>
@@ -3814,7 +3814,7 @@
         <v>26</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>40</v>
@@ -3843,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>40</v>
@@ -3872,7 +3872,7 @@
         <v>28</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>40</v>
@@ -3901,7 +3901,7 @@
         <v>29</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>40</v>
@@ -3930,7 +3930,7 @@
         <v>30</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>40</v>
@@ -3959,7 +3959,7 @@
         <v>31</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>40</v>
@@ -3988,7 +3988,7 @@
         <v>32</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>40</v>
@@ -4017,7 +4017,7 @@
         <v>33</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>40</v>
@@ -4046,7 +4046,7 @@
         <v>34</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>40</v>
@@ -4075,7 +4075,7 @@
         <v>35</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>40</v>
@@ -4104,7 +4104,7 @@
         <v>36</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>40</v>
@@ -4133,7 +4133,7 @@
         <v>37</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>40</v>
@@ -4162,7 +4162,7 @@
         <v>38</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>40</v>
@@ -4191,7 +4191,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>40</v>
@@ -4220,7 +4220,7 @@
         <v>176</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>40</v>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B6337-C713-FB4F-962B-0E753DFBE04F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226B548E-A68C-214A-8320-B086328D23E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="215">
   <si>
     <t>Date</t>
   </si>
@@ -597,9 +597,6 @@
     <t>Seventh</t>
   </si>
   <si>
-    <t>Nativity of our Lord Jesus Christ</t>
-  </si>
-  <si>
     <t>Holy Innocents, Martyrs</t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>christmas-vigil</t>
+  </si>
+  <si>
+    <t>Denomination</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,14 +1060,14 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1099,25 +1099,28 @@
         <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>40</v>
@@ -1151,10 +1154,13 @@
       <c r="J2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>40</v>
@@ -1188,10 +1194,13 @@
       <c r="J3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>40</v>
@@ -1225,10 +1234,13 @@
       <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -1248,7 +1260,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>40</v>
@@ -1262,10 +1274,13 @@
       <c r="J5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -1285,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>40</v>
@@ -1299,10 +1314,13 @@
       <c r="J6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -1322,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>40</v>
@@ -1336,10 +1354,13 @@
       <c r="J7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -1359,7 +1380,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>40</v>
@@ -1373,10 +1394,13 @@
       <c r="J8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -1396,7 +1420,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>40</v>
@@ -1410,10 +1434,13 @@
       <c r="J9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -1433,7 +1460,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>40</v>
@@ -1447,10 +1474,13 @@
       <c r="J10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -1470,7 +1500,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>40</v>
@@ -1484,10 +1514,13 @@
       <c r="J11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -1507,7 +1540,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>40</v>
@@ -1521,10 +1554,13 @@
       <c r="J12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -1544,7 +1580,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>40</v>
@@ -1558,13 +1594,16 @@
       <c r="J13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -1584,7 +1623,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>40</v>
@@ -1598,10 +1637,13 @@
       <c r="J14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -1621,7 +1663,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>40</v>
@@ -1635,10 +1677,13 @@
       <c r="J15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1658,7 +1703,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>40</v>
@@ -1672,10 +1717,13 @@
       <c r="J16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -1695,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>90</v>
@@ -1710,16 +1758,19 @@
         <v>6</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -1739,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>90</v>
@@ -1754,13 +1805,16 @@
         <v>6</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -1780,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>90</v>
@@ -1795,13 +1849,16 @@
         <v>6</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -1821,7 +1878,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>90</v>
@@ -1836,25 +1893,28 @@
         <v>6</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -1874,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>90</v>
@@ -1889,13 +1949,16 @@
         <v>6</v>
       </c>
       <c r="K21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -1915,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>90</v>
@@ -1930,13 +1993,16 @@
         <v>6</v>
       </c>
       <c r="K22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -1956,7 +2022,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>90</v>
@@ -1971,25 +2037,28 @@
         <v>6</v>
       </c>
       <c r="K23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -2009,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>90</v>
@@ -2024,23 +2093,26 @@
         <v>7</v>
       </c>
       <c r="K24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="5"/>
+      <c r="N24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -2060,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>90</v>
@@ -2075,11 +2147,14 @@
         <v>7</v>
       </c>
       <c r="K25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -2099,7 +2174,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>90</v>
@@ -2114,23 +2189,26 @@
         <v>7</v>
       </c>
       <c r="K26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="5"/>
+      <c r="N26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -2150,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>90</v>
@@ -2165,23 +2243,26 @@
         <v>7</v>
       </c>
       <c r="K27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="5"/>
+      <c r="N27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -2201,7 +2282,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>90</v>
@@ -2216,23 +2297,26 @@
         <v>7</v>
       </c>
       <c r="K28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="5"/>
+      <c r="N28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -2252,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>90</v>
@@ -2267,23 +2351,26 @@
         <v>7</v>
       </c>
       <c r="K29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="5"/>
+      <c r="N29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -2303,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>90</v>
@@ -2318,11 +2405,14 @@
         <v>7</v>
       </c>
       <c r="K30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -2342,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>90</v>
@@ -2357,23 +2447,26 @@
         <v>42</v>
       </c>
       <c r="K31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="5"/>
+      <c r="N31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2393,7 +2486,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>90</v>
@@ -2408,20 +2501,23 @@
         <v>42</v>
       </c>
       <c r="K32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="O32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -2441,7 +2537,7 @@
         <v>22</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>90</v>
@@ -2456,23 +2552,26 @@
         <v>42</v>
       </c>
       <c r="K33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="5"/>
+      <c r="N33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>79</v>
       </c>
@@ -2492,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>90</v>
@@ -2507,20 +2606,23 @@
         <v>42</v>
       </c>
       <c r="K34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="5"/>
+      <c r="N34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>80</v>
       </c>
@@ -2540,7 +2642,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>90</v>
@@ -2555,11 +2657,14 @@
         <v>42</v>
       </c>
       <c r="K35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
@@ -2579,7 +2684,7 @@
         <v>25</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>90</v>
@@ -2594,11 +2699,14 @@
         <v>42</v>
       </c>
       <c r="K36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -2618,7 +2726,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>90</v>
@@ -2633,11 +2741,14 @@
         <v>42</v>
       </c>
       <c r="K37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>83</v>
       </c>
@@ -2657,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>90</v>
@@ -2672,11 +2783,14 @@
         <v>43</v>
       </c>
       <c r="K38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>84</v>
       </c>
@@ -2696,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>90</v>
@@ -2711,11 +2825,14 @@
         <v>43</v>
       </c>
       <c r="K39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
@@ -2735,7 +2852,7 @@
         <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>90</v>
@@ -2750,11 +2867,14 @@
         <v>43</v>
       </c>
       <c r="K40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
@@ -2774,7 +2894,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>90</v>
@@ -2789,20 +2909,23 @@
         <v>43</v>
       </c>
       <c r="K41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="5"/>
+      <c r="N41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="O41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>87</v>
       </c>
@@ -2822,7 +2945,7 @@
         <v>31</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>90</v>
@@ -2837,11 +2960,14 @@
         <v>43</v>
       </c>
       <c r="K42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>88</v>
       </c>
@@ -2861,7 +2987,7 @@
         <v>32</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>90</v>
@@ -2876,20 +3002,23 @@
         <v>43</v>
       </c>
       <c r="K43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="5"/>
+      <c r="N43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="O43" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="P43" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>89</v>
       </c>
@@ -2909,7 +3038,7 @@
         <v>33</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>90</v>
@@ -2924,20 +3053,23 @@
         <v>43</v>
       </c>
       <c r="K44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
-        <v>210</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="O44" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O44" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>138</v>
       </c>
@@ -2957,7 +3089,7 @@
         <v>34</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>178</v>
@@ -2972,20 +3104,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="N45" s="5" t="s">
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="P45" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>139</v>
       </c>
@@ -3005,7 +3138,7 @@
         <v>35</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>178</v>
@@ -3020,19 +3153,22 @@
         <v>7</v>
       </c>
       <c r="K46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="N46" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="O46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="P46" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>140</v>
       </c>
@@ -3052,7 +3188,7 @@
         <v>36</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>178</v>
@@ -3067,19 +3203,22 @@
         <v>42</v>
       </c>
       <c r="K47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="N47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P47" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="N47" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>141</v>
       </c>
@@ -3099,7 +3238,7 @@
         <v>37</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>178</v>
@@ -3114,19 +3253,22 @@
         <v>43</v>
       </c>
       <c r="K48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="N48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="N48" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>142</v>
       </c>
@@ -3146,7 +3288,7 @@
         <v>38</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>178</v>
@@ -3161,10 +3303,13 @@
         <v>184</v>
       </c>
       <c r="K49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>143</v>
       </c>
@@ -3184,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>178</v>
@@ -3199,19 +3344,22 @@
         <v>185</v>
       </c>
       <c r="K50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L50" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="N50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O50" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>144</v>
       </c>
@@ -3231,7 +3379,7 @@
         <v>176</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>178</v>
@@ -3246,10 +3394,13 @@
         <v>186</v>
       </c>
       <c r="K51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L51" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>145</v>
       </c>
@@ -3269,7 +3420,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>178</v>
@@ -3281,22 +3432,25 @@
         <v>179</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="N52" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O52" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>146</v>
       </c>
@@ -3316,7 +3470,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>178</v>
@@ -3328,13 +3482,16 @@
         <v>179</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>147</v>
       </c>
@@ -3354,7 +3511,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>178</v>
@@ -3366,22 +3523,25 @@
         <v>179</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="N54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>148</v>
       </c>
@@ -3401,7 +3561,7 @@
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>178</v>
@@ -3413,13 +3573,16 @@
         <v>179</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L55" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>149</v>
       </c>
@@ -3439,7 +3602,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>178</v>
@@ -3451,13 +3614,16 @@
         <v>179</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>150</v>
       </c>
@@ -3477,7 +3643,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>40</v>
@@ -3492,19 +3658,22 @@
         <v>6</v>
       </c>
       <c r="K57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P57" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>151</v>
       </c>
@@ -3524,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>40</v>
@@ -3532,8 +3701,9 @@
       <c r="H58" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>152</v>
       </c>
@@ -3553,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>40</v>
@@ -3562,7 +3732,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>153</v>
       </c>
@@ -3582,7 +3752,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>40</v>
@@ -3591,7 +3761,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>154</v>
       </c>
@@ -3611,7 +3781,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>40</v>
@@ -3620,7 +3790,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>155</v>
       </c>
@@ -3640,7 +3810,7 @@
         <v>20</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>40</v>
@@ -3649,7 +3819,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>156</v>
       </c>
@@ -3669,7 +3839,7 @@
         <v>21</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>40</v>
@@ -3678,7 +3848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>157</v>
       </c>
@@ -3698,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>40</v>
@@ -3727,7 +3897,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>40</v>
@@ -3756,7 +3926,7 @@
         <v>24</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>40</v>
@@ -3785,7 +3955,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>40</v>
@@ -3814,7 +3984,7 @@
         <v>26</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>40</v>
@@ -3843,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>40</v>
@@ -3872,7 +4042,7 @@
         <v>28</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>40</v>
@@ -3901,7 +4071,7 @@
         <v>29</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>40</v>
@@ -3930,7 +4100,7 @@
         <v>30</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>40</v>
@@ -3959,7 +4129,7 @@
         <v>31</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>40</v>
@@ -3988,7 +4158,7 @@
         <v>32</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>40</v>
@@ -4017,7 +4187,7 @@
         <v>33</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>40</v>
@@ -4046,7 +4216,7 @@
         <v>34</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>40</v>
@@ -4075,7 +4245,7 @@
         <v>35</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>40</v>
@@ -4104,7 +4274,7 @@
         <v>36</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>40</v>
@@ -4133,7 +4303,7 @@
         <v>37</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>40</v>
@@ -4162,7 +4332,7 @@
         <v>38</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>40</v>
@@ -4191,7 +4361,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>40</v>
@@ -4220,7 +4390,7 @@
         <v>176</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>40</v>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226B548E-A68C-214A-8320-B086328D23E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BCFB1-040D-A249-A09F-100879274D5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -603,12 +603,6 @@
     <t>holy-innocents</t>
   </si>
   <si>
-    <t>St. John the Baptist</t>
-  </si>
-  <si>
-    <t>st-john-battist</t>
-  </si>
-  <si>
     <t>Day Name</t>
   </si>
   <si>
@@ -679,6 +673,12 @@
   </si>
   <si>
     <t>Denomination</t>
+  </si>
+  <si>
+    <t>st-john-apostle</t>
+  </si>
+  <si>
+    <t>St. John, Apostle and Evangelist</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>110</v>
@@ -1140,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>40</v>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>40</v>
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>40</v>
@@ -1260,7 +1260,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>40</v>
@@ -1300,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>40</v>
@@ -1340,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>40</v>
@@ -1380,7 +1380,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>40</v>
@@ -1420,7 +1420,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>40</v>
@@ -1460,7 +1460,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>40</v>
@@ -1500,7 +1500,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>40</v>
@@ -1540,7 +1540,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>40</v>
@@ -1580,7 +1580,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>40</v>
@@ -1623,7 +1623,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>40</v>
@@ -1663,7 +1663,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>40</v>
@@ -1703,7 +1703,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>40</v>
@@ -1743,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>90</v>
@@ -1790,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>90</v>
@@ -1834,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>90</v>
@@ -1878,7 +1878,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>90</v>
@@ -1934,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>90</v>
@@ -1978,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>90</v>
@@ -2022,7 +2022,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>90</v>
@@ -2078,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>90</v>
@@ -2132,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>90</v>
@@ -2174,7 +2174,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>90</v>
@@ -2228,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>90</v>
@@ -2282,7 +2282,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>90</v>
@@ -2336,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>90</v>
@@ -2390,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>90</v>
@@ -2432,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>90</v>
@@ -2486,7 +2486,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>90</v>
@@ -2537,7 +2537,7 @@
         <v>22</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>90</v>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>90</v>
@@ -2642,7 +2642,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>90</v>
@@ -2684,7 +2684,7 @@
         <v>25</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>90</v>
@@ -2726,7 +2726,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>90</v>
@@ -2768,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>90</v>
@@ -2810,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>90</v>
@@ -2852,7 +2852,7 @@
         <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>90</v>
@@ -2894,7 +2894,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>90</v>
@@ -2945,7 +2945,7 @@
         <v>31</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>90</v>
@@ -2987,7 +2987,7 @@
         <v>32</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>90</v>
@@ -3038,7 +3038,7 @@
         <v>33</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>90</v>
@@ -3060,13 +3060,13 @@
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>95</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -3089,7 +3089,7 @@
         <v>34</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>178</v>
@@ -3138,7 +3138,7 @@
         <v>35</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>178</v>
@@ -3188,7 +3188,7 @@
         <v>36</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>178</v>
@@ -3209,13 +3209,13 @@
         <v>180</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>94</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
         <v>37</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>178</v>
@@ -3288,7 +3288,7 @@
         <v>38</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>178</v>
@@ -3329,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>178</v>
@@ -3350,13 +3350,13 @@
         <v>180</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>94</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -3379,7 +3379,7 @@
         <v>176</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>178</v>
@@ -3420,7 +3420,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>178</v>
@@ -3432,7 +3432,7 @@
         <v>179</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>3</v>
@@ -3441,13 +3441,13 @@
         <v>180</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>95</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>178</v>
@@ -3482,7 +3482,7 @@
         <v>179</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>3</v>
@@ -3511,7 +3511,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>178</v>
@@ -3523,7 +3523,7 @@
         <v>179</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>3</v>
@@ -3532,13 +3532,13 @@
         <v>180</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -3561,7 +3561,7 @@
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>178</v>
@@ -3573,7 +3573,7 @@
         <v>179</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>3</v>
@@ -3602,7 +3602,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>178</v>
@@ -3614,7 +3614,7 @@
         <v>179</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>3</v>
@@ -3643,7 +3643,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>40</v>
@@ -3664,13 +3664,13 @@
         <v>180</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>94</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>40</v>
@@ -3723,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>40</v>
@@ -3752,7 +3752,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>40</v>
@@ -3781,7 +3781,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>40</v>
@@ -3810,7 +3810,7 @@
         <v>20</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>40</v>
@@ -3839,7 +3839,7 @@
         <v>21</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>40</v>
@@ -3868,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>40</v>
@@ -3897,7 +3897,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>40</v>
@@ -3926,7 +3926,7 @@
         <v>24</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>40</v>
@@ -3955,7 +3955,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>40</v>
@@ -3984,7 +3984,7 @@
         <v>26</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>40</v>
@@ -4013,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>40</v>
@@ -4042,7 +4042,7 @@
         <v>28</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>40</v>
@@ -4071,7 +4071,7 @@
         <v>29</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>40</v>
@@ -4100,7 +4100,7 @@
         <v>30</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>40</v>
@@ -4129,7 +4129,7 @@
         <v>31</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>40</v>
@@ -4158,7 +4158,7 @@
         <v>32</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>40</v>
@@ -4187,7 +4187,7 @@
         <v>33</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>40</v>
@@ -4216,7 +4216,7 @@
         <v>34</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>40</v>
@@ -4245,7 +4245,7 @@
         <v>35</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>40</v>
@@ -4274,7 +4274,7 @@
         <v>36</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>40</v>
@@ -4303,7 +4303,7 @@
         <v>37</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>40</v>
@@ -4332,7 +4332,7 @@
         <v>38</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>40</v>
@@ -4361,7 +4361,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>40</v>
@@ -4390,7 +4390,7 @@
         <v>176</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>40</v>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BCFB1-040D-A249-A09F-100879274D5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD440CA-4755-C149-8D29-CE4CD42D620F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="219">
   <si>
     <t>Date</t>
   </si>
@@ -679,6 +679,18 @@
   </si>
   <si>
     <t>St. John, Apostle and Evangelist</t>
+  </si>
+  <si>
+    <t>St. Thomas Becket, Bishop and Martyr</t>
+  </si>
+  <si>
+    <t>st-thomas-beckett</t>
+  </si>
+  <si>
+    <t>St. Sylvester I, Pope</t>
+  </si>
+  <si>
+    <t>st-sylvester-i</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1064,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3308,6 +3320,15 @@
       <c r="L49" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="N49" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -3398,6 +3419,15 @@
       </c>
       <c r="L51" s="5" t="s">
         <v>180</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD440CA-4755-C149-8D29-CE4CD42D620F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C46BA-2576-DA4A-89DA-3BDAC6E6C245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3309,7 +3309,7 @@
         <v>177</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>184</v>
@@ -3359,7 +3359,7 @@
         <v>177</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>185</v>
@@ -3409,7 +3409,7 @@
         <v>177</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>186</v>
@@ -3509,7 +3509,7 @@
         <v>177</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>198</v>
@@ -3550,7 +3550,7 @@
         <v>177</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>199</v>
@@ -3600,7 +3600,7 @@
         <v>177</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>200</v>
@@ -3641,7 +3641,7 @@
         <v>177</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>201</v>
@@ -3682,7 +3682,7 @@
         <v>99</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>6</v>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C46BA-2576-DA4A-89DA-3BDAC6E6C245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7FEAD2-E711-2A41-95C9-ED6E43950B96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="221">
   <si>
     <t>Date</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>st-sylvester-i</t>
+  </si>
+  <si>
+    <t>Baptism of our Lord Jesus Christ</t>
+  </si>
+  <si>
+    <t>baptism</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3761,6 +3767,15 @@
       <c r="H59" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="N59" t="s">
+        <v>219</v>
+      </c>
+      <c r="O59" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7FEAD2-E711-2A41-95C9-ED6E43950B96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BB44A-636D-EC48-9B2B-CB338543702E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -697,6 +697,12 @@
   </si>
   <si>
     <t>baptism</t>
+  </si>
+  <si>
+    <t>st-basil-gregory</t>
+  </si>
+  <si>
+    <t>St. Basil the Great and St. Gregory Nazianzen, Bishops and Doctors of the Church</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3526,6 +3532,15 @@
       <c r="L53" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="N53" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BB44A-636D-EC48-9B2B-CB338543702E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CAD7D0-8460-6648-9379-9293E4F6C578}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,15 +1149,14 @@
         <v>47</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B16" si="0">YEAR(A2)</f>
         <v>2022</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:C16" si="1">MONTH(A2)</f>
+        <f t="shared" ref="C2:C16" si="0">MONTH(A2)</f>
         <v>11</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D16" si="2">DAY(A2)</f>
+        <f t="shared" ref="D2:D16" si="1">DAY(A2)</f>
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1189,15 +1188,15 @@
         <v>48</v>
       </c>
       <c r="B3" s="4">
+        <f t="shared" ref="B3:B16" si="2">YEAR(A3)</f>
+        <v>2022</v>
+      </c>
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C3" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1229,15 +1228,15 @@
         <v>49</v>
       </c>
       <c r="B4" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C4" s="4">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1269,15 +1268,15 @@
         <v>50</v>
       </c>
       <c r="B5" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1309,15 +1308,15 @@
         <v>51</v>
       </c>
       <c r="B6" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C6" s="4">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1349,15 +1348,15 @@
         <v>52</v>
       </c>
       <c r="B7" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C7" s="4">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1389,15 +1388,15 @@
         <v>53</v>
       </c>
       <c r="B8" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C8" s="4">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1429,15 +1428,15 @@
         <v>54</v>
       </c>
       <c r="B9" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C9" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1469,15 +1468,15 @@
         <v>55</v>
       </c>
       <c r="B10" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C10" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1509,15 +1508,15 @@
         <v>56</v>
       </c>
       <c r="B11" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C11" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1549,15 +1548,15 @@
         <v>57</v>
       </c>
       <c r="B12" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C12" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1589,15 +1588,15 @@
         <v>58</v>
       </c>
       <c r="B13" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C13" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1632,15 +1631,15 @@
         <v>59</v>
       </c>
       <c r="B14" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C14" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1672,15 +1671,15 @@
         <v>60</v>
       </c>
       <c r="B15" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1712,15 +1711,15 @@
         <v>61</v>
       </c>
       <c r="B16" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C16" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CAD7D0-8460-6648-9379-9293E4F6C578}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A3C307-E08A-9A4E-BC7F-CAE1B3479EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>St. Basil the Great and St. Gregory Nazianzen, Bishops and Doctors of the Church</t>
+  </si>
+  <si>
+    <t>Epiphany</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3696,7 +3699,7 @@
         <v>196</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>99</v>
@@ -3746,12 +3749,17 @@
         <v>191</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="J58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
@@ -3781,6 +3789,12 @@
       <c r="H59" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="J59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="N59" t="s">
         <v>219</v>
       </c>
@@ -3819,6 +3833,12 @@
       <c r="H60" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
@@ -3848,6 +3868,12 @@
       <c r="H61" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="J61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
@@ -3877,6 +3903,12 @@
       <c r="H62" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="J62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
@@ -3906,6 +3938,12 @@
       <c r="H63" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="J63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
@@ -3935,8 +3973,14 @@
       <c r="H64" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>158</v>
       </c>
@@ -3964,8 +4008,14 @@
       <c r="H65" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>159</v>
       </c>
@@ -3994,7 +4044,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>160</v>
       </c>
@@ -4023,7 +4073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>161</v>
       </c>
@@ -4052,7 +4102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>162</v>
       </c>
@@ -4081,7 +4131,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>163</v>
       </c>
@@ -4110,7 +4160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>164</v>
       </c>
@@ -4139,7 +4189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>165</v>
       </c>
@@ -4168,7 +4218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>166</v>
       </c>
@@ -4197,7 +4247,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>167</v>
       </c>
@@ -4226,7 +4276,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>168</v>
       </c>
@@ -4255,7 +4305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>169</v>
       </c>
@@ -4284,7 +4334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>170</v>
       </c>
@@ -4313,7 +4363,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>171</v>
       </c>
@@ -4342,7 +4392,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>172</v>
       </c>
@@ -4371,7 +4421,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>173</v>
       </c>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A3C307-E08A-9A4E-BC7F-CAE1B3479EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2359A338-43E4-064B-86E9-33BB7E799478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -654,9 +654,6 @@
     <t>epiphany</t>
   </si>
   <si>
-    <t>Holy Name of Jesus</t>
-  </si>
-  <si>
     <t>Nativity of our Lord Jesus Christ, Vigil</t>
   </si>
   <si>
@@ -706,6 +703,12 @@
   </si>
   <si>
     <t>Epiphany</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Most Holy Name of Jesus</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>110</v>
@@ -3086,13 +3089,13 @@
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>95</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -3235,13 +3238,13 @@
         <v>180</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>94</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -3335,13 +3338,13 @@
         <v>180</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>103</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -3435,13 +3438,13 @@
         <v>180</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>103</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -3485,13 +3488,13 @@
         <v>180</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>95</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -3535,13 +3538,13 @@
         <v>180</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>102</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -3585,13 +3588,13 @@
         <v>180</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -3699,7 +3702,7 @@
         <v>196</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>99</v>
@@ -3749,7 +3752,7 @@
         <v>191</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>99</v>
@@ -3759,6 +3762,9 @@
       </c>
       <c r="K58" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3795,14 +3801,17 @@
       <c r="K59" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L59" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="N59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O59" t="s">
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -3839,6 +3848,9 @@
       <c r="K60" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L60" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
@@ -3874,6 +3886,9 @@
       <c r="K61" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L61" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
@@ -3909,6 +3924,9 @@
       <c r="K62" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L62" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
@@ -3944,6 +3962,9 @@
       <c r="K63" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L63" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
@@ -3979,8 +4000,11 @@
       <c r="K64" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>158</v>
       </c>
@@ -4014,8 +4038,11 @@
       <c r="K65" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>159</v>
       </c>
@@ -4044,7 +4071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>160</v>
       </c>
@@ -4073,7 +4100,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>161</v>
       </c>
@@ -4102,7 +4129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>162</v>
       </c>
@@ -4131,7 +4158,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>163</v>
       </c>
@@ -4160,7 +4187,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>164</v>
       </c>
@@ -4189,7 +4216,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>165</v>
       </c>
@@ -4218,7 +4245,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>166</v>
       </c>
@@ -4247,7 +4274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>167</v>
       </c>
@@ -4276,7 +4303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>168</v>
       </c>
@@ -4305,7 +4332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>169</v>
       </c>
@@ -4334,7 +4361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>170</v>
       </c>
@@ -4363,7 +4390,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>171</v>
       </c>
@@ -4392,7 +4419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>172</v>
       </c>
@@ -4421,7 +4448,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>173</v>
       </c>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2359A338-43E4-064B-86E9-33BB7E799478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D67967-72CF-274B-B486-4FE89CAAF60D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -709,6 +709,12 @@
   </si>
   <si>
     <t>Most Holy Name of Jesus</t>
+  </si>
+  <si>
+    <t>St. Elizabeth Ann Seton, Religious</t>
+  </si>
+  <si>
+    <t>st-elizabeth-ann-seton</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1088,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3637,6 +3643,15 @@
       <c r="L55" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="N55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D67967-72CF-274B-B486-4FE89CAAF60D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7594776D-D26F-3D4C-B162-18FE54716A7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -702,9 +702,6 @@
     <t>St. Basil the Great and St. Gregory Nazianzen, Bishops and Doctors of the Church</t>
   </si>
   <si>
-    <t>Epiphany</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
@@ -715,6 +712,21 @@
   </si>
   <si>
     <t>st-elizabeth-ann-seton</t>
+  </si>
+  <si>
+    <t>Epiphanytide</t>
+  </si>
+  <si>
+    <t>St. John Neumann, Bishop</t>
+  </si>
+  <si>
+    <t>st-john-neumann</t>
+  </si>
+  <si>
+    <t>St. Raymond of Penyafort, Priest</t>
+  </si>
+  <si>
+    <t>st-raymon-penyafort</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView tabSelected="1" topLeftCell="F44" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3594,7 +3606,7 @@
         <v>180</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>94</v>
@@ -3644,13 +3656,13 @@
         <v>180</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>102</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -3693,6 +3705,15 @@
       <c r="L56" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="N56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
@@ -3717,13 +3738,13 @@
         <v>196</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>6</v>
@@ -3767,10 +3788,13 @@
         <v>191</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>99</v>
+        <v>205</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>7</v>
@@ -3780,6 +3804,15 @@
       </c>
       <c r="L58" s="1" t="s">
         <v>180</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3810,6 +3843,9 @@
       <c r="H59" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="I59" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="J59" s="1" t="s">
         <v>6</v>
       </c>
@@ -3817,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N59" t="s">
         <v>218</v>
@@ -3864,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -3902,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -3940,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -3978,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -4016,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -4054,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7594776D-D26F-3D4C-B162-18FE54716A7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61853D14-ADA5-184F-BF25-143CB863CDDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -714,9 +714,6 @@
     <t>st-elizabeth-ann-seton</t>
   </si>
   <si>
-    <t>Epiphanytide</t>
-  </si>
-  <si>
     <t>St. John Neumann, Bishop</t>
   </si>
   <si>
@@ -726,7 +723,7 @@
     <t>St. Raymond of Penyafort, Priest</t>
   </si>
   <si>
-    <t>st-raymon-penyafort</t>
+    <t>st-raymond-penyafort</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F44" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3706,13 +3703,13 @@
         <v>180</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>102</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3738,7 +3735,7 @@
         <v>196</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>205</v>
@@ -3759,7 +3756,7 @@
         <v>204</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>205</v>
@@ -3788,7 +3785,7 @@
         <v>191</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>205</v>
@@ -3806,13 +3803,13 @@
         <v>180</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>103</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3838,10 +3835,10 @@
         <v>190</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>179</v>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61853D14-ADA5-184F-BF25-143CB863CDDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6884A8-113B-B644-AB9C-E3319E1578B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -712,6 +712,9 @@
   </si>
   <si>
     <t>st-elizabeth-ann-seton</t>
+  </si>
+  <si>
+    <t>Epiphanytide</t>
   </si>
   <si>
     <t>St. John Neumann, Bishop</t>
@@ -1096,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3703,13 +3706,13 @@
         <v>180</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>102</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3735,7 +3738,7 @@
         <v>196</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>205</v>
@@ -3785,7 +3788,7 @@
         <v>191</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>205</v>
@@ -3803,13 +3806,13 @@
         <v>180</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>103</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3835,7 +3838,7 @@
         <v>190</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>205</v>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6884A8-113B-B644-AB9C-E3319E1578B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24178059-4B51-BD4C-B1F4-1749A02D087C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3844,13 +3844,13 @@
         <v>205</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>222</v>
@@ -3893,6 +3893,9 @@
       <c r="H60" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="I60" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="J60" s="1" t="s">
         <v>6</v>
       </c>
@@ -3931,6 +3934,9 @@
       <c r="H61" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="I61" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="J61" s="1" t="s">
         <v>6</v>
       </c>
@@ -3969,6 +3975,9 @@
       <c r="H62" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="I62" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="J62" s="1" t="s">
         <v>6</v>
       </c>
@@ -4007,6 +4016,9 @@
       <c r="H63" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="I63" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="J63" s="1" t="s">
         <v>6</v>
       </c>
@@ -4045,6 +4057,9 @@
       <c r="H64" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="I64" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="J64" s="1" t="s">
         <v>6</v>
       </c>
@@ -4082,6 +4097,9 @@
       </c>
       <c r="H65" s="4" t="s">
         <v>99</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>6</v>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24178059-4B51-BD4C-B1F4-1749A02D087C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E9CA15-4394-0645-9349-E26170B8BB5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -727,6 +727,93 @@
   </si>
   <si>
     <t>st-raymond-penyafort</t>
+  </si>
+  <si>
+    <t>ordinarytime01</t>
+  </si>
+  <si>
+    <t>St. Hilary, Bishop and Doctor of the Church</t>
+  </si>
+  <si>
+    <t>st-hilary</t>
+  </si>
+  <si>
+    <t>St. Anthony, Abbot</t>
+  </si>
+  <si>
+    <t>st-anthony</t>
+  </si>
+  <si>
+    <t>St. Fabian, Pope and Martyr</t>
+  </si>
+  <si>
+    <t>st-fabian</t>
+  </si>
+  <si>
+    <t>St. Agnes, Virgin and Martyr</t>
+  </si>
+  <si>
+    <t>st-agnes</t>
+  </si>
+  <si>
+    <t>St. Vincent, Deacon and Martyr</t>
+  </si>
+  <si>
+    <t>st-vincent</t>
+  </si>
+  <si>
+    <t>St. Francis de Sales, Bishop and Doctor of the Church</t>
+  </si>
+  <si>
+    <t>st-francis-de-sales</t>
+  </si>
+  <si>
+    <t>Conversion of St. Paul</t>
+  </si>
+  <si>
+    <t>st-paul-conversion</t>
+  </si>
+  <si>
+    <t>St. Timothy and St. Titus, Bishops</t>
+  </si>
+  <si>
+    <t>st-timothy-titus</t>
+  </si>
+  <si>
+    <t>St. Angela Merici, Virgin</t>
+  </si>
+  <si>
+    <t>st-angela-merici</t>
+  </si>
+  <si>
+    <t>St. Thomas Aquinas, Priest and Doctor of the Church</t>
+  </si>
+  <si>
+    <t>st-thomas-aquinas</t>
+  </si>
+  <si>
+    <t>St. John Bosco, Priest</t>
+  </si>
+  <si>
+    <t>st-john-bosco</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Year Cycle Short</t>
+  </si>
+  <si>
+    <t>year_c</t>
+  </si>
+  <si>
+    <t>year_a</t>
+  </si>
+  <si>
+    <t>year_i_ii</t>
+  </si>
+  <si>
+    <t>year_i</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,14 +1195,14 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1143,32 +1230,35 @@
       <c r="I1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
+      <c r="J1" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -1198,16 +1288,19 @@
       <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -1238,16 +1331,19 @@
       <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -1278,16 +1374,19 @@
       <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -1318,16 +1417,19 @@
       <c r="I5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -1358,16 +1460,19 @@
       <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -1398,16 +1503,19 @@
       <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -1438,16 +1546,19 @@
       <c r="I8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -1478,16 +1589,19 @@
       <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -1518,16 +1632,19 @@
       <c r="I10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -1558,16 +1675,19 @@
       <c r="I11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -1598,16 +1718,19 @@
       <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -1638,19 +1761,22 @@
       <c r="I13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -1681,16 +1807,19 @@
       <c r="I14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -1721,16 +1850,19 @@
       <c r="I15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1761,16 +1893,19 @@
       <c r="I16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -1801,23 +1936,26 @@
       <c r="I17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -1848,20 +1986,23 @@
       <c r="I18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -1892,20 +2033,23 @@
       <c r="I19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -1936,32 +2080,35 @@
       <c r="I20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="N20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -1992,20 +2139,23 @@
       <c r="I21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -2036,20 +2186,23 @@
       <c r="I22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2080,32 +2233,35 @@
       <c r="I23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="N23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -2136,30 +2292,33 @@
       <c r="I24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -2190,18 +2349,21 @@
       <c r="I25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -2232,30 +2394,33 @@
       <c r="I26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="5"/>
+      <c r="O26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -2286,30 +2451,33 @@
       <c r="I27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="5"/>
+      <c r="O27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -2340,30 +2508,33 @@
       <c r="I28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="5"/>
+      <c r="O28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -2394,30 +2565,33 @@
       <c r="I29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="5"/>
+      <c r="O29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -2448,18 +2622,21 @@
       <c r="I30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -2490,30 +2667,33 @@
       <c r="I31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="5"/>
+      <c r="O31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2544,27 +2724,30 @@
       <c r="I32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="Q32" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -2595,30 +2778,33 @@
       <c r="I33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="5"/>
+      <c r="O33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>79</v>
       </c>
@@ -2649,27 +2835,30 @@
       <c r="I34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="5"/>
+      <c r="O34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="Q34" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>80</v>
       </c>
@@ -2700,18 +2889,21 @@
       <c r="I35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
@@ -2742,18 +2934,21 @@
       <c r="I36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -2784,18 +2979,21 @@
       <c r="I37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>83</v>
       </c>
@@ -2826,18 +3024,21 @@
       <c r="I38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>84</v>
       </c>
@@ -2868,18 +3069,21 @@
       <c r="I39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
@@ -2910,18 +3114,21 @@
       <c r="I40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
@@ -2952,27 +3159,30 @@
       <c r="I41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="Q41" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>87</v>
       </c>
@@ -3003,18 +3213,21 @@
       <c r="I42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>88</v>
       </c>
@@ -3045,27 +3258,30 @@
       <c r="I43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="5"/>
+      <c r="O43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="P43" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="Q43" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>89</v>
       </c>
@@ -3096,27 +3312,30 @@
       <c r="I44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="L44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="5"/>
+      <c r="O44" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="P44" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="Q44" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>138</v>
       </c>
@@ -3147,25 +3366,28 @@
       <c r="I45" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="L45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="M45" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="5"/>
+      <c r="P45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="Q45" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>139</v>
       </c>
@@ -3196,26 +3418,29 @@
       <c r="I46" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="L46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="M46" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="O46" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="P46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P46" s="5" t="s">
+      <c r="Q46" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>140</v>
       </c>
@@ -3246,26 +3471,29 @@
       <c r="I47" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="L47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="M47" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="O47" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="P47" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="Q47" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>141</v>
       </c>
@@ -3296,26 +3524,29 @@
       <c r="I48" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="L48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="M48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="O48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="P48" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P48" s="5" t="s">
+      <c r="Q48" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>142</v>
       </c>
@@ -3346,26 +3577,29 @@
       <c r="I49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="L49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="M49" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N49" s="5" t="s">
+      <c r="O49" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="P49" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P49" s="5" t="s">
+      <c r="Q49" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>143</v>
       </c>
@@ -3396,26 +3630,29 @@
       <c r="I50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="L50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="M50" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="O50" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="P50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P50" s="5" t="s">
+      <c r="Q50" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>144</v>
       </c>
@@ -3446,26 +3683,29 @@
       <c r="I51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="L51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="M51" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="O51" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="P51" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P51" s="5" t="s">
+      <c r="Q51" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>145</v>
       </c>
@@ -3496,26 +3736,29 @@
       <c r="I52" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="L52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="M52" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="O52" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="P52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="P52" s="5" t="s">
+      <c r="Q52" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>146</v>
       </c>
@@ -3546,26 +3789,29 @@
       <c r="I53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="L53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="M53" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="O53" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="P53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="P53" s="5" t="s">
+      <c r="Q53" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>147</v>
       </c>
@@ -3596,26 +3842,29 @@
       <c r="I54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="L54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="M54" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>148</v>
       </c>
@@ -3646,26 +3895,29 @@
       <c r="I55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="L55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="M55" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>149</v>
       </c>
@@ -3696,26 +3948,29 @@
       <c r="I56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="L56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="M56" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>150</v>
       </c>
@@ -3746,26 +4001,29 @@
       <c r="I57" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="L57" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="M57" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>151</v>
       </c>
@@ -3796,26 +4054,29 @@
       <c r="I58" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="L58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>152</v>
       </c>
@@ -3846,26 +4107,29 @@
       <c r="I59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>218</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>94</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>153</v>
       </c>
@@ -3891,22 +4155,25 @@
         <v>40</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J60" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="L60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>154</v>
       </c>
@@ -3932,22 +4199,25 @@
         <v>40</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="L61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>155</v>
       </c>
@@ -3973,22 +4243,25 @@
         <v>40</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="L62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>156</v>
       </c>
@@ -4014,22 +4287,25 @@
         <v>40</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="L63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>157</v>
       </c>
@@ -4055,22 +4331,34 @@
         <v>40</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="L64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>158</v>
       </c>
@@ -4096,22 +4384,25 @@
         <v>40</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="L65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>159</v>
       </c>
@@ -4137,10 +4428,25 @@
         <v>40</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>160</v>
       </c>
@@ -4166,10 +4472,25 @@
         <v>40</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>161</v>
       </c>
@@ -4195,10 +4516,34 @@
         <v>40</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>162</v>
       </c>
@@ -4224,10 +4569,25 @@
         <v>40</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>163</v>
       </c>
@@ -4253,10 +4613,25 @@
         <v>40</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>164</v>
       </c>
@@ -4282,10 +4657,34 @@
         <v>40</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>165</v>
       </c>
@@ -4311,10 +4710,34 @@
         <v>40</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>166</v>
       </c>
@@ -4340,10 +4763,26 @@
         <v>40</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>167</v>
       </c>
@@ -4369,10 +4808,34 @@
         <v>40</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>168</v>
       </c>
@@ -4398,10 +4861,34 @@
         <v>40</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>169</v>
       </c>
@@ -4427,10 +4914,34 @@
         <v>40</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>170</v>
       </c>
@@ -4456,10 +4967,34 @@
         <v>40</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>171</v>
       </c>
@@ -4485,10 +5020,34 @@
         <v>40</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>172</v>
       </c>
@@ -4514,10 +5073,34 @@
         <v>40</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>173</v>
       </c>
@@ -4543,10 +5126,25 @@
         <v>40</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>174</v>
       </c>
@@ -4572,10 +5170,25 @@
         <v>40</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>175</v>
       </c>
@@ -4601,10 +5214,34 @@
         <v>40</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E9CA15-4394-0645-9349-E26170B8BB5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF51B8B-ED6F-9D4A-A485-60D009FF97E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -741,9 +741,6 @@
     <t>St. Anthony, Abbot</t>
   </si>
   <si>
-    <t>st-anthony</t>
-  </si>
-  <si>
     <t>St. Fabian, Pope and Martyr</t>
   </si>
   <si>
@@ -814,6 +811,9 @@
   </si>
   <si>
     <t>year_i</t>
+  </si>
+  <si>
+    <t>st-anthony-abbot</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59:J82"/>
+    <sheetView tabSelected="1" topLeftCell="O53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1231,7 @@
         <v>113</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>2</v>
@@ -1289,7 +1289,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>44</v>
@@ -1332,7 +1332,7 @@
         <v>41</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>45</v>
@@ -1375,7 +1375,7 @@
         <v>41</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>45</v>
@@ -1418,7 +1418,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>45</v>
@@ -1461,7 +1461,7 @@
         <v>41</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>45</v>
@@ -1504,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>45</v>
@@ -1547,7 +1547,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>45</v>
@@ -1590,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>45</v>
@@ -1633,7 +1633,7 @@
         <v>41</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>46</v>
@@ -1676,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>46</v>
@@ -1719,7 +1719,7 @@
         <v>41</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>46</v>
@@ -1762,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>46</v>
@@ -1808,7 +1808,7 @@
         <v>41</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>46</v>
@@ -1851,7 +1851,7 @@
         <v>41</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>46</v>
@@ -1894,7 +1894,7 @@
         <v>41</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>46</v>
@@ -1937,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>6</v>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>6</v>
@@ -2034,7 +2034,7 @@
         <v>96</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>6</v>
@@ -2081,7 +2081,7 @@
         <v>96</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>6</v>
@@ -2140,7 +2140,7 @@
         <v>96</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>6</v>
@@ -2187,7 +2187,7 @@
         <v>96</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>6</v>
@@ -2234,7 +2234,7 @@
         <v>96</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>6</v>
@@ -2293,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>7</v>
@@ -2350,7 +2350,7 @@
         <v>96</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>7</v>
@@ -2395,7 +2395,7 @@
         <v>96</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>7</v>
@@ -2452,7 +2452,7 @@
         <v>96</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>7</v>
@@ -2509,7 +2509,7 @@
         <v>96</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>7</v>
@@ -2566,7 +2566,7 @@
         <v>96</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>7</v>
@@ -2623,7 +2623,7 @@
         <v>96</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>7</v>
@@ -2668,7 +2668,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>42</v>
@@ -2725,7 +2725,7 @@
         <v>96</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>42</v>
@@ -2779,7 +2779,7 @@
         <v>96</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>42</v>
@@ -2836,7 +2836,7 @@
         <v>96</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>42</v>
@@ -2890,7 +2890,7 @@
         <v>96</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>42</v>
@@ -2935,7 +2935,7 @@
         <v>96</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>42</v>
@@ -2980,7 +2980,7 @@
         <v>96</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>42</v>
@@ -3025,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>43</v>
@@ -3070,7 +3070,7 @@
         <v>96</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>43</v>
@@ -3115,7 +3115,7 @@
         <v>96</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>43</v>
@@ -3160,7 +3160,7 @@
         <v>96</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>43</v>
@@ -3214,7 +3214,7 @@
         <v>96</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>43</v>
@@ -3259,7 +3259,7 @@
         <v>96</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>43</v>
@@ -3313,7 +3313,7 @@
         <v>96</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>43</v>
@@ -3367,7 +3367,7 @@
         <v>179</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>6</v>
@@ -3419,7 +3419,7 @@
         <v>179</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>7</v>
@@ -3472,7 +3472,7 @@
         <v>179</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>42</v>
@@ -3525,7 +3525,7 @@
         <v>179</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>43</v>
@@ -3578,7 +3578,7 @@
         <v>96</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>184</v>
@@ -3631,7 +3631,7 @@
         <v>96</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>185</v>
@@ -3684,7 +3684,7 @@
         <v>96</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>186</v>
@@ -3737,7 +3737,7 @@
         <v>179</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>197</v>
@@ -3790,7 +3790,7 @@
         <v>96</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>198</v>
@@ -3843,7 +3843,7 @@
         <v>96</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>199</v>
@@ -3896,7 +3896,7 @@
         <v>96</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>200</v>
@@ -3949,7 +3949,7 @@
         <v>96</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>201</v>
@@ -4002,7 +4002,7 @@
         <v>179</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>6</v>
@@ -4055,7 +4055,7 @@
         <v>96</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>7</v>
@@ -4108,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>42</v>
@@ -4158,10 +4158,10 @@
         <v>231</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>6</v>
@@ -4202,10 +4202,10 @@
         <v>231</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>6</v>
@@ -4246,10 +4246,10 @@
         <v>231</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>6</v>
@@ -4290,10 +4290,10 @@
         <v>231</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>6</v>
@@ -4334,10 +4334,10 @@
         <v>231</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>6</v>
@@ -4387,10 +4387,10 @@
         <v>231</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>6</v>
@@ -4434,7 +4434,7 @@
         <v>8</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>7</v>
@@ -4475,10 +4475,10 @@
         <v>231</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>7</v>
@@ -4519,10 +4519,10 @@
         <v>231</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>7</v>
@@ -4540,7 +4540,7 @@
         <v>102</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -4572,10 +4572,10 @@
         <v>231</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>7</v>
@@ -4616,10 +4616,10 @@
         <v>231</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>7</v>
@@ -4660,10 +4660,10 @@
         <v>231</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>7</v>
@@ -4675,13 +4675,13 @@
         <v>222</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -4713,10 +4713,10 @@
         <v>231</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>7</v>
@@ -4728,13 +4728,13 @@
         <v>222</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>42</v>
@@ -4811,10 +4811,10 @@
         <v>231</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>42</v>
@@ -4826,13 +4826,13 @@
         <v>222</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -4864,10 +4864,10 @@
         <v>231</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>42</v>
@@ -4879,13 +4879,13 @@
         <v>222</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -4917,10 +4917,10 @@
         <v>231</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>42</v>
@@ -4932,13 +4932,13 @@
         <v>222</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>94</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -4970,10 +4970,10 @@
         <v>231</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>42</v>
@@ -4985,13 +4985,13 @@
         <v>222</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -5023,10 +5023,10 @@
         <v>231</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>42</v>
@@ -5038,13 +5038,13 @@
         <v>222</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -5076,10 +5076,10 @@
         <v>231</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>42</v>
@@ -5091,13 +5091,13 @@
         <v>222</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -5132,7 +5132,7 @@
         <v>8</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>43</v>
@@ -5173,10 +5173,10 @@
         <v>231</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>43</v>
@@ -5217,10 +5217,10 @@
         <v>231</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>43</v>
@@ -5232,13 +5232,13 @@
         <v>222</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF51B8B-ED6F-9D4A-A485-60D009FF97E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA14A8-87C3-D74F-9FBF-8ED7B1CD3F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -759,9 +759,6 @@
     <t>st-vincent</t>
   </si>
   <si>
-    <t>St. Francis de Sales, Bishop and Doctor of the Church</t>
-  </si>
-  <si>
     <t>st-francis-de-sales</t>
   </si>
   <si>
@@ -783,9 +780,6 @@
     <t>st-angela-merici</t>
   </si>
   <si>
-    <t>St. Thomas Aquinas, Priest and Doctor of the Church</t>
-  </si>
-  <si>
     <t>st-thomas-aquinas</t>
   </si>
   <si>
@@ -814,6 +808,12 @@
   </si>
   <si>
     <t>st-anthony-abbot</t>
+  </si>
+  <si>
+    <t>St. Thomas Aquinas, Doctor of the Church</t>
+  </si>
+  <si>
+    <t>St. Francis de Sales, Doctor of the Church</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="G51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1231,7 @@
         <v>113</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>2</v>
@@ -1289,7 +1289,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>44</v>
@@ -1332,7 +1332,7 @@
         <v>41</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>45</v>
@@ -1375,7 +1375,7 @@
         <v>41</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>45</v>
@@ -1418,7 +1418,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>45</v>
@@ -1461,7 +1461,7 @@
         <v>41</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>45</v>
@@ -1504,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>45</v>
@@ -1547,7 +1547,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>45</v>
@@ -1590,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>45</v>
@@ -1633,7 +1633,7 @@
         <v>41</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>46</v>
@@ -1676,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>46</v>
@@ -1719,7 +1719,7 @@
         <v>41</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>46</v>
@@ -1762,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>46</v>
@@ -1808,7 +1808,7 @@
         <v>41</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>46</v>
@@ -1851,7 +1851,7 @@
         <v>41</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>46</v>
@@ -1894,7 +1894,7 @@
         <v>41</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>46</v>
@@ -1937,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>6</v>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>6</v>
@@ -2034,7 +2034,7 @@
         <v>96</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>6</v>
@@ -2081,7 +2081,7 @@
         <v>96</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>6</v>
@@ -2140,7 +2140,7 @@
         <v>96</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>6</v>
@@ -2187,7 +2187,7 @@
         <v>96</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>6</v>
@@ -2234,7 +2234,7 @@
         <v>96</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>6</v>
@@ -2293,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>7</v>
@@ -2350,7 +2350,7 @@
         <v>96</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>7</v>
@@ -2395,7 +2395,7 @@
         <v>96</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>7</v>
@@ -2452,7 +2452,7 @@
         <v>96</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>7</v>
@@ -2509,7 +2509,7 @@
         <v>96</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>7</v>
@@ -2566,7 +2566,7 @@
         <v>96</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>7</v>
@@ -2623,7 +2623,7 @@
         <v>96</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>7</v>
@@ -2668,7 +2668,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>42</v>
@@ -2725,7 +2725,7 @@
         <v>96</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>42</v>
@@ -2779,7 +2779,7 @@
         <v>96</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>42</v>
@@ -2836,7 +2836,7 @@
         <v>96</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>42</v>
@@ -2890,7 +2890,7 @@
         <v>96</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>42</v>
@@ -2935,7 +2935,7 @@
         <v>96</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>42</v>
@@ -2980,7 +2980,7 @@
         <v>96</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>42</v>
@@ -3025,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>43</v>
@@ -3070,7 +3070,7 @@
         <v>96</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>43</v>
@@ -3115,7 +3115,7 @@
         <v>96</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>43</v>
@@ -3160,7 +3160,7 @@
         <v>96</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>43</v>
@@ -3214,7 +3214,7 @@
         <v>96</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>43</v>
@@ -3259,7 +3259,7 @@
         <v>96</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>43</v>
@@ -3313,7 +3313,7 @@
         <v>96</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>43</v>
@@ -3367,7 +3367,7 @@
         <v>179</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>6</v>
@@ -3419,7 +3419,7 @@
         <v>179</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>7</v>
@@ -3472,7 +3472,7 @@
         <v>179</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>42</v>
@@ -3525,7 +3525,7 @@
         <v>179</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>43</v>
@@ -3578,7 +3578,7 @@
         <v>96</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>184</v>
@@ -3631,7 +3631,7 @@
         <v>96</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>185</v>
@@ -3684,7 +3684,7 @@
         <v>96</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>186</v>
@@ -3737,7 +3737,7 @@
         <v>179</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>197</v>
@@ -3790,7 +3790,7 @@
         <v>96</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>198</v>
@@ -3843,7 +3843,7 @@
         <v>96</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>199</v>
@@ -3896,7 +3896,7 @@
         <v>96</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>200</v>
@@ -3949,7 +3949,7 @@
         <v>96</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>201</v>
@@ -4002,7 +4002,7 @@
         <v>179</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>6</v>
@@ -4055,7 +4055,7 @@
         <v>96</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>7</v>
@@ -4108,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>42</v>
@@ -4158,10 +4158,10 @@
         <v>231</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>6</v>
@@ -4202,10 +4202,10 @@
         <v>231</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>6</v>
@@ -4246,10 +4246,10 @@
         <v>231</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>6</v>
@@ -4290,10 +4290,10 @@
         <v>231</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>6</v>
@@ -4334,10 +4334,10 @@
         <v>231</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>6</v>
@@ -4387,10 +4387,10 @@
         <v>231</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>6</v>
@@ -4434,7 +4434,7 @@
         <v>8</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>7</v>
@@ -4475,10 +4475,10 @@
         <v>231</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>7</v>
@@ -4519,10 +4519,10 @@
         <v>231</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>7</v>
@@ -4540,7 +4540,7 @@
         <v>102</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -4572,10 +4572,10 @@
         <v>231</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>7</v>
@@ -4616,10 +4616,10 @@
         <v>231</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>7</v>
@@ -4660,10 +4660,10 @@
         <v>231</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>7</v>
@@ -4713,10 +4713,10 @@
         <v>231</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>7</v>
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>42</v>
@@ -4811,10 +4811,10 @@
         <v>231</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>42</v>
@@ -4864,10 +4864,10 @@
         <v>231</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>42</v>
@@ -4879,13 +4879,13 @@
         <v>222</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -4917,10 +4917,10 @@
         <v>231</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>42</v>
@@ -4932,13 +4932,13 @@
         <v>222</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>94</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -4970,10 +4970,10 @@
         <v>231</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>42</v>
@@ -4985,13 +4985,13 @@
         <v>222</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -5023,10 +5023,10 @@
         <v>231</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>42</v>
@@ -5038,13 +5038,13 @@
         <v>222</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -5076,10 +5076,10 @@
         <v>231</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>42</v>
@@ -5091,13 +5091,13 @@
         <v>222</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -5132,7 +5132,7 @@
         <v>8</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>43</v>
@@ -5173,10 +5173,10 @@
         <v>231</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>43</v>
@@ -5217,10 +5217,10 @@
         <v>231</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>43</v>
@@ -5232,13 +5232,13 @@
         <v>222</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA14A8-87C3-D74F-9FBF-8ED7B1CD3F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6C5E50-1771-B843-9B1D-F2B0D874E94A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="288">
   <si>
     <t>Date</t>
   </si>
@@ -814,6 +814,90 @@
   </si>
   <si>
     <t>St. Francis de Sales, Doctor of the Church</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-02-26</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82:M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4222,15 +4306,15 @@
         <v>155</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" ref="B62:B82" si="12">YEAR(A62)</f>
+        <f t="shared" ref="B62:B110" si="12">YEAR(A62)</f>
         <v>2023</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" ref="C62:C82" si="13">MONTH(A62)</f>
+        <f t="shared" ref="C62:C110" si="13">MONTH(A62)</f>
         <v>1</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" ref="D62:D82" si="14">DAY(A62)</f>
+        <f t="shared" ref="D62:D110" si="14">DAY(A62)</f>
         <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -5242,12 +5326,1236 @@
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
+      <c r="A83" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B84" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B96" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B98" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B100" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C102" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="4">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B103" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C103" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="4">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C104" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D104" s="4">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C105" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="4">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C106" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D106" s="4">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C107" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D107" s="4">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C108" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D108" s="4">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C109" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D109" s="4">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B110" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C110" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D110" s="4">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6C5E50-1771-B843-9B1D-F2B0D874E94A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B61EB-98B3-5B4D-8200-6FEAE4A7651C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B74" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82:M110"/>
+      <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B61EB-98B3-5B4D-8200-6FEAE4A7651C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266A3C1A-2724-B54E-B924-3F38712D72C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="292">
   <si>
     <t>Date</t>
   </si>
@@ -898,6 +898,18 @@
   </si>
   <si>
     <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>Presentation of our Lord Jesus Christ</t>
+  </si>
+  <si>
+    <t>presentation-jesus</t>
+  </si>
+  <si>
+    <t>St. Blaise, Bishop and Martyr</t>
+  </si>
+  <si>
+    <t>st-blaise</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+    <sheetView tabSelected="1" topLeftCell="I61" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q85" sqref="Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5412,6 +5424,15 @@
       <c r="M84" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="O84" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -5455,6 +5476,15 @@
       </c>
       <c r="M85" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266A3C1A-2724-B54E-B924-3F38712D72C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8F9FC-28E4-CF4F-942C-C58788CE8A5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -910,6 +910,18 @@
   </si>
   <si>
     <t>st-blaise</t>
+  </si>
+  <si>
+    <t>St. Agatha, Virgin and Martyr</t>
+  </si>
+  <si>
+    <t>st-agatha</t>
+  </si>
+  <si>
+    <t>St. Paul Miki and Companions, Martyrs</t>
+  </si>
+  <si>
+    <t>st-paul-miki-companions</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I61" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5574,6 +5586,15 @@
       <c r="M87" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="O87" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
@@ -5617,6 +5638,15 @@
       </c>
       <c r="M88" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8F9FC-28E4-CF4F-942C-C58788CE8A5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F424030-9190-4B44-82C1-F595BE0B9C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="298">
   <si>
     <t>Date</t>
   </si>
@@ -922,6 +922,12 @@
   </si>
   <si>
     <t>st-paul-miki-companions</t>
+  </si>
+  <si>
+    <t>St. Jerome Emiliani</t>
+  </si>
+  <si>
+    <t>st-jerome-emiliani</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O89" sqref="O89"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5736,6 +5742,15 @@
       <c r="M90" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="O90" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F424030-9190-4B44-82C1-F595BE0B9C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E230910-D376-D747-A12E-40C6C9C726FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="304">
   <si>
     <t>Date</t>
   </si>
@@ -928,6 +928,24 @@
   </si>
   <si>
     <t>st-jerome-emiliani</t>
+  </si>
+  <si>
+    <t>St. Josephine Bakhita, Virgin</t>
+  </si>
+  <si>
+    <t>st-josephine-bakhita</t>
+  </si>
+  <si>
+    <t>St. Scholastica, Virgin</t>
+  </si>
+  <si>
+    <t>st-scholastica</t>
+  </si>
+  <si>
+    <t>Our Lady of Lourdes</t>
+  </si>
+  <si>
+    <t>lourdes</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="F79" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5795,6 +5813,15 @@
       <c r="M91" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="O91" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -5839,6 +5866,15 @@
       <c r="M92" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="O92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -5882,6 +5918,15 @@
       </c>
       <c r="M93" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E230910-D376-D747-A12E-40C6C9C726FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C48861-C657-0946-9F5D-797036C4216E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="308">
   <si>
     <t>Date</t>
   </si>
@@ -946,6 +946,18 @@
   </si>
   <si>
     <t>lourdes</t>
+  </si>
+  <si>
+    <t>St. Cyril, Monk and St. Methodius, Bishop</t>
+  </si>
+  <si>
+    <t>st-cyril-methodius</t>
+  </si>
+  <si>
+    <t>The Seven Holy Founders of the Servite Order</t>
+  </si>
+  <si>
+    <t>servite-founders</t>
   </si>
 </sst>
 </file>
@@ -1318,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F79" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q93" sqref="Q93"/>
+    <sheetView tabSelected="1" topLeftCell="E73" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6060,8 +6072,17 @@
       <c r="M96" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O96" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>274</v>
       </c>
@@ -6105,7 +6126,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>275</v>
       </c>
@@ -6149,7 +6170,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>276</v>
       </c>
@@ -6192,8 +6213,17 @@
       <c r="M99" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O99" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>277</v>
       </c>
@@ -6237,7 +6267,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>278</v>
       </c>
@@ -6281,7 +6311,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>279</v>
       </c>
@@ -6325,7 +6355,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>280</v>
       </c>
@@ -6369,7 +6399,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>281</v>
       </c>
@@ -6413,7 +6443,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>282</v>
       </c>
@@ -6457,7 +6487,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>283</v>
       </c>
@@ -6501,7 +6531,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>284</v>
       </c>
@@ -6545,7 +6575,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>285</v>
       </c>
@@ -6589,7 +6619,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>286</v>
       </c>
@@ -6633,7 +6663,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>287</v>
       </c>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C48861-C657-0946-9F5D-797036C4216E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241711CB-75A1-424E-B06A-9DE5B0718692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="310">
   <si>
     <t>Date</t>
   </si>
@@ -958,6 +958,12 @@
   </si>
   <si>
     <t>servite-founders</t>
+  </si>
+  <si>
+    <t>St. Peter Damian, Bishop and Doctor of the Church</t>
+  </si>
+  <si>
+    <t>st-peter-damian</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1337,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E73" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q99" sqref="Q99"/>
+      <selection activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6398,6 +6404,15 @@
       <c r="M103" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="O103" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241711CB-75A1-424E-B06A-9DE5B0718692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9DFBC-AC80-F642-BD45-D4FB5411B206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="344">
   <si>
     <t>Date</t>
   </si>
@@ -964,6 +964,108 @@
   </si>
   <si>
     <t>st-peter-damian</t>
+  </si>
+  <si>
+    <t>the Season of Lent</t>
+  </si>
+  <si>
+    <t>lent</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>Wedensday</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
+    <t>2023-03-08</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
+  </si>
+  <si>
+    <t>2023-03-12</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>2023-03-18</t>
+  </si>
+  <si>
+    <t>2023-03-19</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>2023-03-22</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2023-03-25</t>
+  </si>
+  <si>
+    <t>2023-03-26</t>
+  </si>
+  <si>
+    <t>2023-03-27</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
+  </si>
+  <si>
+    <t>2023-03-29</t>
+  </si>
+  <si>
+    <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>2023-03-31</t>
   </si>
 </sst>
 </file>
@@ -1334,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q103" sqref="Q103"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4372,15 +4474,15 @@
         <v>155</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" ref="B62:B110" si="12">YEAR(A62)</f>
+        <f t="shared" ref="B62:B125" si="12">YEAR(A62)</f>
         <v>2023</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" ref="C62:C110" si="13">MONTH(A62)</f>
+        <f t="shared" ref="C62:C125" si="13">MONTH(A62)</f>
         <v>1</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" ref="D62:D110" si="14">DAY(A62)</f>
+        <f t="shared" ref="D62:D125" si="14">DAY(A62)</f>
         <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -6437,25 +6539,19 @@
         <v>194</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -6481,25 +6577,19 @@
         <v>195</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -6525,25 +6615,19 @@
         <v>196</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -6569,25 +6653,19 @@
         <v>191</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -6613,10 +6691,10 @@
         <v>190</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>8</v>
@@ -6625,13 +6703,13 @@
         <v>254</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -6657,25 +6735,25 @@
         <v>192</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -6701,25 +6779,1389 @@
         <v>193</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>222</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C111" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D111" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C112" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C113" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C114" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B115" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C115" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C116" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D116" s="4">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B117" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C117" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D117" s="4">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B118" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C118" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D118" s="4">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B119" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C119" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D119" s="4">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B120" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C120" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D120" s="4">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B121" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C121" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D121" s="4">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B122" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C122" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D122" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B123" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C123" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D123" s="4">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B124" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C124" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D124" s="4">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B125" s="4">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="C125" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D125" s="4">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B126" s="4">
+        <f t="shared" ref="B126:B141" si="15">YEAR(A126)</f>
+        <v>2023</v>
+      </c>
+      <c r="C126" s="4">
+        <f t="shared" ref="C126:C141" si="16">MONTH(A126)</f>
+        <v>3</v>
+      </c>
+      <c r="D126" s="4">
+        <f t="shared" ref="D126:D141" si="17">DAY(A126)</f>
+        <v>16</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B127" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C127" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D127" s="4">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B128" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C128" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D128" s="4">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B129" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C129" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D129" s="4">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B130" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C130" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D130" s="4">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B131" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C131" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D131" s="4">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C132" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D132" s="4">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C133" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D133" s="4">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B134" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C134" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D134" s="4">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B135" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C135" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D135" s="4">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B136" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C136" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D136" s="4">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B137" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C137" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D137" s="4">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B138" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C138" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D138" s="4">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B139" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C139" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D139" s="4">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C140" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D140" s="4">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B141" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C141" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D141" s="4">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9DFBC-AC80-F642-BD45-D4FB5411B206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A94A2D0-6D8E-5F44-BF75-2B132C67CEC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="346">
   <si>
     <t>Date</t>
   </si>
@@ -1066,6 +1066,12 @@
   </si>
   <si>
     <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>Ash Wednesday</t>
+  </si>
+  <si>
+    <t>ashwednesday</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6542,7 +6548,7 @@
         <v>310</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>179</v>
@@ -6550,8 +6556,14 @@
       <c r="J104" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="K104" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="M104" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="O104" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -6580,13 +6592,16 @@
         <v>310</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>179</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>254</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>111</v>
@@ -6618,13 +6633,16 @@
         <v>310</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>179</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>254</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>111</v>
@@ -6656,13 +6674,16 @@
         <v>310</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>179</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>254</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>111</v>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A94A2D0-6D8E-5F44-BF75-2B132C67CEC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804EA54-EC5A-854B-8F0B-AB1E52ADC450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804EA54-EC5A-854B-8F0B-AB1E52ADC450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B39A9F0-9DC5-4543-8127-708D52A6862A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="378">
   <si>
     <t>Date</t>
   </si>
@@ -975,9 +975,6 @@
     <t>2023-03-01</t>
   </si>
   <si>
-    <t>Wedensday</t>
-  </si>
-  <si>
     <t>2023-03-02</t>
   </si>
   <si>
@@ -1072,6 +1069,105 @@
   </si>
   <si>
     <t>ashwednesday</t>
+  </si>
+  <si>
+    <t>Chair of St. Peter the Apostle</t>
+  </si>
+  <si>
+    <t>chair-st-peter</t>
+  </si>
+  <si>
+    <t>St. Polycarp, Bishop and Martyr</t>
+  </si>
+  <si>
+    <t>st-polycarp</t>
+  </si>
+  <si>
+    <t>St. Katherine Drexel, Virgin</t>
+  </si>
+  <si>
+    <t>st-katherine-drexel</t>
+  </si>
+  <si>
+    <t>St. Casimir</t>
+  </si>
+  <si>
+    <t>st-casimir</t>
+  </si>
+  <si>
+    <t>St. Perpetua and St. Felicity, Martyrs</t>
+  </si>
+  <si>
+    <t>st-perpetua-felicity</t>
+  </si>
+  <si>
+    <t>St. John of God, Religious</t>
+  </si>
+  <si>
+    <t>st-john-of-god</t>
+  </si>
+  <si>
+    <t>St. Frances of Rome, Religious</t>
+  </si>
+  <si>
+    <t>st-frances-rome</t>
+  </si>
+  <si>
+    <t>St. Patrick, Bishop</t>
+  </si>
+  <si>
+    <t>st-patrick</t>
+  </si>
+  <si>
+    <t>St. Cyril of Jerusalem, Bishop and Doctor of the Church</t>
+  </si>
+  <si>
+    <t>st-cyril-jerusalem</t>
+  </si>
+  <si>
+    <t>St. Joseph, Spouse of the Blessed Virgin Mary</t>
+  </si>
+  <si>
+    <t>st-joseph-spouse-of-mary</t>
+  </si>
+  <si>
+    <t>St. Turibius of Mogrovejo, Bishop</t>
+  </si>
+  <si>
+    <t>st-turibius-mogrovejo</t>
+  </si>
+  <si>
+    <t>The Annunciation of the Lord</t>
+  </si>
+  <si>
+    <t>annunciation</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-04-02</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-04-04</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>2023-04-08</t>
+  </si>
+  <si>
+    <t>2023-04-09</t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143:M150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6548,7 +6644,7 @@
         <v>310</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>179</v>
@@ -6557,13 +6653,19 @@
         <v>254</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>111</v>
       </c>
       <c r="O104" t="s">
-        <v>344</v>
+        <v>345</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -6592,7 +6694,7 @@
         <v>310</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>179</v>
@@ -6601,10 +6703,19 @@
         <v>254</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -6633,7 +6744,7 @@
         <v>310</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>179</v>
@@ -6642,7 +6753,7 @@
         <v>254</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>111</v>
@@ -6674,7 +6785,7 @@
         <v>310</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>179</v>
@@ -6683,7 +6794,7 @@
         <v>254</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>111</v>
@@ -6841,7 +6952,7 @@
         <v>10</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>310</v>
@@ -6867,7 +6978,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B112" s="4">
         <f t="shared" si="12"/>
@@ -6885,7 +6996,7 @@
         <v>11</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>310</v>
@@ -6909,9 +7020,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B113" s="4">
         <f t="shared" si="12"/>
@@ -6929,7 +7040,7 @@
         <v>12</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>310</v>
@@ -6952,10 +7063,19 @@
       <c r="M113" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O113" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B114" s="4">
         <f t="shared" si="12"/>
@@ -6973,7 +7093,7 @@
         <v>13</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>310</v>
@@ -6996,10 +7116,19 @@
       <c r="M114" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O114" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B115" s="4">
         <f t="shared" si="12"/>
@@ -7017,7 +7146,7 @@
         <v>14</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>310</v>
@@ -7041,9 +7170,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B116" s="4">
         <f t="shared" si="12"/>
@@ -7061,7 +7190,7 @@
         <v>15</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>310</v>
@@ -7085,9 +7214,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B117" s="4">
         <f t="shared" si="12"/>
@@ -7105,7 +7234,7 @@
         <v>16</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>310</v>
@@ -7128,10 +7257,19 @@
       <c r="M117" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O117" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B118" s="4">
         <f t="shared" si="12"/>
@@ -7149,7 +7287,7 @@
         <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>310</v>
@@ -7172,10 +7310,19 @@
       <c r="M118" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O118" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B119" s="4">
         <f t="shared" si="12"/>
@@ -7193,7 +7340,7 @@
         <v>18</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>310</v>
@@ -7216,10 +7363,19 @@
       <c r="M119" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O119" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B120" s="4">
         <f t="shared" si="12"/>
@@ -7237,7 +7393,7 @@
         <v>19</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>310</v>
@@ -7261,9 +7417,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B121" s="4">
         <f t="shared" si="12"/>
@@ -7281,7 +7437,7 @@
         <v>20</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>310</v>
@@ -7305,9 +7461,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B122" s="4">
         <f t="shared" si="12"/>
@@ -7325,7 +7481,7 @@
         <v>21</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>310</v>
@@ -7349,9 +7505,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B123" s="4">
         <f t="shared" si="12"/>
@@ -7369,7 +7525,7 @@
         <v>22</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>310</v>
@@ -7393,9 +7549,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B124" s="4">
         <f t="shared" si="12"/>
@@ -7413,7 +7569,7 @@
         <v>23</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>310</v>
@@ -7437,9 +7593,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B125" s="4">
         <f t="shared" si="12"/>
@@ -7457,7 +7613,7 @@
         <v>24</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>310</v>
@@ -7481,27 +7637,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B126" s="4">
-        <f t="shared" ref="B126:B141" si="15">YEAR(A126)</f>
+        <f t="shared" ref="B126:B142" si="15">YEAR(A126)</f>
         <v>2023</v>
       </c>
       <c r="C126" s="4">
-        <f t="shared" ref="C126:C141" si="16">MONTH(A126)</f>
+        <f t="shared" ref="C126:C142" si="16">MONTH(A126)</f>
         <v>3</v>
       </c>
       <c r="D126" s="4">
-        <f t="shared" ref="D126:D141" si="17">DAY(A126)</f>
+        <f t="shared" ref="D126:D142" si="17">DAY(A126)</f>
         <v>16</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>310</v>
@@ -7525,9 +7681,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B127" s="4">
         <f t="shared" si="15"/>
@@ -7545,7 +7701,7 @@
         <v>26</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>310</v>
@@ -7568,10 +7724,19 @@
       <c r="M127" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O127" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B128" s="4">
         <f t="shared" si="15"/>
@@ -7589,7 +7754,7 @@
         <v>27</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>310</v>
@@ -7612,10 +7777,19 @@
       <c r="M128" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O128" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B129" s="4">
         <f t="shared" si="15"/>
@@ -7633,7 +7807,7 @@
         <v>28</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>310</v>
@@ -7656,10 +7830,19 @@
       <c r="M129" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O129" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B130" s="4">
         <f t="shared" si="15"/>
@@ -7677,7 +7860,7 @@
         <v>29</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>310</v>
@@ -7701,9 +7884,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B131" s="4">
         <f t="shared" si="15"/>
@@ -7721,7 +7904,7 @@
         <v>30</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>310</v>
@@ -7745,9 +7928,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B132" s="4">
         <f t="shared" si="15"/>
@@ -7765,7 +7948,7 @@
         <v>31</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>310</v>
@@ -7789,9 +7972,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B133" s="4">
         <f t="shared" si="15"/>
@@ -7809,7 +7992,7 @@
         <v>32</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>310</v>
@@ -7832,10 +8015,19 @@
       <c r="M133" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O133" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B134" s="4">
         <f t="shared" si="15"/>
@@ -7853,7 +8045,7 @@
         <v>33</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>310</v>
@@ -7877,9 +8069,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B135" s="4">
         <f t="shared" si="15"/>
@@ -7897,7 +8089,7 @@
         <v>34</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>310</v>
@@ -7920,10 +8112,19 @@
       <c r="M135" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O135" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B136" s="4">
         <f t="shared" si="15"/>
@@ -7941,7 +8142,7 @@
         <v>35</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>310</v>
@@ -7965,9 +8166,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B137" s="4">
         <f t="shared" si="15"/>
@@ -7985,7 +8186,7 @@
         <v>36</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>310</v>
@@ -8009,9 +8210,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B138" s="4">
         <f t="shared" si="15"/>
@@ -8029,7 +8230,7 @@
         <v>37</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>310</v>
@@ -8053,9 +8254,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B139" s="4">
         <f t="shared" si="15"/>
@@ -8073,7 +8274,7 @@
         <v>38</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>310</v>
@@ -8097,9 +8298,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B140" s="4">
         <f t="shared" si="15"/>
@@ -8117,7 +8318,7 @@
         <v>39</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>310</v>
@@ -8141,9 +8342,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B141" s="4">
         <f t="shared" si="15"/>
@@ -8161,7 +8362,7 @@
         <v>176</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>310</v>
@@ -8182,6 +8383,402 @@
         <v>2</v>
       </c>
       <c r="M141" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B142" s="4">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="C142" s="4">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="D142" s="4">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B143" s="4">
+        <f t="shared" ref="B143:B150" si="18">YEAR(A143)</f>
+        <v>2023</v>
+      </c>
+      <c r="C143" s="4">
+        <f t="shared" ref="C143:C150" si="19">MONTH(A143)</f>
+        <v>4</v>
+      </c>
+      <c r="D143" s="4">
+        <f t="shared" ref="D143:D150" si="20">DAY(A143)</f>
+        <v>2</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B144" s="4">
+        <f t="shared" si="18"/>
+        <v>2023</v>
+      </c>
+      <c r="C144" s="4">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="D144" s="4">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B145" s="4">
+        <f t="shared" si="18"/>
+        <v>2023</v>
+      </c>
+      <c r="C145" s="4">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="D145" s="4">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B146" s="4">
+        <f t="shared" si="18"/>
+        <v>2023</v>
+      </c>
+      <c r="C146" s="4">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="D146" s="4">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B147" s="4">
+        <f t="shared" si="18"/>
+        <v>2023</v>
+      </c>
+      <c r="C147" s="4">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="D147" s="4">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B148" s="4">
+        <f t="shared" si="18"/>
+        <v>2023</v>
+      </c>
+      <c r="C148" s="4">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="D148" s="4">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B149" s="4">
+        <f t="shared" ref="B149:B150" si="21">YEAR(A149)</f>
+        <v>2023</v>
+      </c>
+      <c r="C149" s="4">
+        <f t="shared" ref="C149:C150" si="22">MONTH(A149)</f>
+        <v>4</v>
+      </c>
+      <c r="D149" s="4">
+        <f t="shared" ref="D149:D150" si="23">DAY(A149)</f>
+        <v>8</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B150" s="4">
+        <f t="shared" si="21"/>
+        <v>2023</v>
+      </c>
+      <c r="C150" s="4">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="D150" s="4">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M150" s="1" t="s">
         <v>111</v>
       </c>
     </row>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B39A9F0-9DC5-4543-8127-708D52A6862A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1A4153-EC0E-B447-8E46-F1CA9FD13905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143:M150"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1A4153-EC0E-B447-8E46-F1CA9FD13905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3B6AC-2120-3848-946F-3420173B0B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -1089,9 +1089,6 @@
     <t>st-katherine-drexel</t>
   </si>
   <si>
-    <t>St. Casimir</t>
-  </si>
-  <si>
     <t>st-casimir</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
   </si>
   <si>
     <t>2023-04-09</t>
+  </si>
+  <si>
+    <t>St. Casimir, King</t>
   </si>
 </sst>
 </file>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="B92" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O114" sqref="O114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7117,13 +7117,13 @@
         <v>111</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -7258,13 +7258,13 @@
         <v>111</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -7311,13 +7311,13 @@
         <v>111</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -7364,13 +7364,13 @@
         <v>111</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -7725,13 +7725,13 @@
         <v>111</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -7778,13 +7778,13 @@
         <v>111</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -7831,13 +7831,13 @@
         <v>111</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P129" s="1" t="s">
         <v>95</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -8016,13 +8016,13 @@
         <v>111</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -8113,13 +8113,13 @@
         <v>111</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>95</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -8388,7 +8388,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B142" s="4">
         <f t="shared" si="15"/>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B143" s="4">
         <f t="shared" ref="B143:B150" si="18">YEAR(A143)</f>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B144" s="4">
         <f t="shared" si="18"/>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B145" s="4">
         <f t="shared" si="18"/>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B146" s="4">
         <f t="shared" si="18"/>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B147" s="4">
         <f t="shared" si="18"/>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B148" s="4">
         <f t="shared" si="18"/>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B149" s="4">
         <f t="shared" ref="B149:B150" si="21">YEAR(A149)</f>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B150" s="4">
         <f t="shared" si="21"/>

--- a/static/documents/datedimension.xlsx
+++ b/static/documents/datedimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsequeira/Python Projects/Ave Christus Rex/avechristusrex/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3B6AC-2120-3848-946F-3420173B0B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06FB706-CE69-AB46-9C75-B758E372A674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{7DAFA1EF-05D6-CA41-A437-56AA8F0EED2D}"/>
   </bookViews>
@@ -1095,9 +1095,6 @@
     <t>St. Perpetua and St. Felicity, Martyrs</t>
   </si>
   <si>
-    <t>st-perpetua-felicity</t>
-  </si>
-  <si>
     <t>St. John of God, Religious</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
   </si>
   <si>
     <t>St. Casimir, King</t>
+  </si>
+  <si>
+    <t>st-felicity-perpetua</t>
   </si>
 </sst>
 </file>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552FDF1-F193-E245-A605-7FBF4F5DE2A7}">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B92" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O114" sqref="O114"/>
+    <sheetView tabSelected="1" topLeftCell="L96" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7117,7 +7117,7 @@
         <v>111</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>103</v>
@@ -7264,7 +7264,7 @@
         <v>102</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -7311,13 +7311,13 @@
         <v>111</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -7364,13 +7364,13 @@
         <v>111</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -7725,13 +7725,13 @@
         <v>111</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -7778,13 +7778,13 @@
         <v>111</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -7831,13 +7831,13 @@
         <v>111</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P129" s="1" t="s">
         <v>95</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -8016,13 +8016,13 @@
         <v>111</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -8113,13 +8113,13 @@
         <v>111</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>95</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -8388,7 +8388,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B142" s="4">
         <f t="shared" si="15"/>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B143" s="4">
         <f t="shared" ref="B143:B150" si="18">YEAR(A143)</f>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B144" s="4">
         <f t="shared" si="18"/>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B145" s="4">
         <f t="shared" si="18"/>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B146" s="4">
         <f t="shared" si="18"/>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B147" s="4">
         <f t="shared" si="18"/>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B148" s="4">
         <f t="shared" si="18"/>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B149" s="4">
         <f t="shared" ref="B149:B150" si="21">YEAR(A149)</f>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B150" s="4">
         <f t="shared" si="21"/>
